--- a/Data/raw/DQQ2022/DQQ_2022_Codebook_Public.xlsx
+++ b/Data/raw/DQQ2022/DQQ_2022_Codebook_Public.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\World_Poll\Quality\Vetting\2022\CLIENTS\DQQ_GAIN\2023_3_29 Public Release Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/alireza_taghdisian_mail_mcgill_ca/Documents/R Projects/DQQ-fork/Global-Diet-Quality-Project/Data/raw/DQQ2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{1F83805E-BFAB-4BCC-9617-6175CB990F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dqq_dictionary" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2505,14 +2518,12 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2522,8 +2533,17 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2534,18 +2554,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2610,9 +2623,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2650,7 +2663,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2756,7 +2769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2898,7 +2911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2909,36 +2922,36 @@
   <dimension ref="A1:E564"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A11"/>
+      <pane ySplit="3" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C202" sqref="C202:C205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="55.81640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="86.36328125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="55.796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="19" customWidth="1"/>
     <col min="4" max="4" width="23" style="27" customWidth="1"/>
-    <col min="5" max="5" width="97.1796875" customWidth="1"/>
+    <col min="5" max="5" width="97.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:5" ht="31.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="60" t="s">
         <v>517</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-    </row>
-    <row r="2" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-    </row>
-    <row r="3" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +2968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
@@ -2966,7 +2979,7 @@
       <c r="D4" s="30"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2977,7 +2990,7 @@
       <c r="D5" s="29"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2988,7 +3001,7 @@
       <c r="D6" s="26"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -2999,7 +3012,7 @@
       <c r="D7" s="39"/>
       <c r="E7" s="40"/>
     </row>
-    <row r="8" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
@@ -3010,7 +3023,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
@@ -3021,27 +3034,27 @@
       <c r="D9" s="39"/>
       <c r="E9" s="40"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="47" t="s">
         <v>461</v>
       </c>
       <c r="B10" s="47"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="59"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="9">
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="60"/>
+    <row r="11" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="10">
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="41" t="s">
         <v>329</v>
       </c>
@@ -3058,7 +3071,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="42"/>
       <c r="B13" s="42"/>
       <c r="C13" s="45"/>
@@ -3069,7 +3082,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="42"/>
       <c r="B14" s="42"/>
       <c r="C14" s="45"/>
@@ -3080,7 +3093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="43"/>
       <c r="B15" s="43"/>
       <c r="C15" s="46"/>
@@ -3091,14 +3104,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="47" t="s">
         <v>331</v>
       </c>
       <c r="B16" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="50" t="s">
         <v>413</v>
       </c>
       <c r="D16" s="23">
@@ -3108,10 +3121,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="53"/>
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="24">
         <v>2</v>
       </c>
@@ -3119,10 +3132,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="53"/>
+    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="24">
         <v>8</v>
       </c>
@@ -3130,10 +3143,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="54"/>
+    <row r="19" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="25">
         <v>9</v>
       </c>
@@ -3141,7 +3154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="41" t="s">
         <v>333</v>
       </c>
@@ -3158,7 +3171,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="C21" s="45"/>
@@ -3169,7 +3182,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
       <c r="C22" s="45"/>
@@ -3180,7 +3193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="43"/>
       <c r="B23" s="43"/>
       <c r="C23" s="46"/>
@@ -3191,14 +3204,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="47" t="s">
         <v>335</v>
       </c>
       <c r="B24" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="50" t="s">
         <v>415</v>
       </c>
       <c r="D24" s="23">
@@ -3208,10 +3221,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="53"/>
+    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="24">
         <v>2</v>
       </c>
@@ -3219,10 +3232,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="53"/>
+    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="24">
         <v>8</v>
       </c>
@@ -3230,10 +3243,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="54"/>
+    <row r="27" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="25">
         <v>9</v>
       </c>
@@ -3241,7 +3254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="41" t="s">
         <v>337</v>
       </c>
@@ -3258,7 +3271,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="42"/>
       <c r="B29" s="42"/>
       <c r="C29" s="45"/>
@@ -3269,7 +3282,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="45"/>
@@ -3280,7 +3293,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
       <c r="C31" s="46"/>
@@ -3291,14 +3304,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="47" t="s">
         <v>446</v>
       </c>
       <c r="B32" s="47" t="s">
         <v>339</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="50" t="s">
         <v>417</v>
       </c>
       <c r="D32" s="23">
@@ -3308,10 +3321,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="53"/>
+    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="24">
         <v>2</v>
       </c>
@@ -3319,10 +3332,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="53"/>
+    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="24">
         <v>8</v>
       </c>
@@ -3330,10 +3343,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="54"/>
+    <row r="35" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="25">
         <v>9</v>
       </c>
@@ -3341,7 +3354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="41" t="s">
         <v>447</v>
       </c>
@@ -3358,7 +3371,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="45"/>
@@ -3369,7 +3382,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A38" s="42"/>
       <c r="B38" s="42"/>
       <c r="C38" s="45"/>
@@ -3380,7 +3393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="43"/>
       <c r="B39" s="43"/>
       <c r="C39" s="46"/>
@@ -3391,14 +3404,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="47" t="s">
         <v>448</v>
       </c>
       <c r="B40" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="50" t="s">
         <v>419</v>
       </c>
       <c r="D40" s="23">
@@ -3408,10 +3421,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="53"/>
+    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="24">
         <v>2</v>
       </c>
@@ -3419,10 +3432,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="53"/>
+    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="24">
         <v>8</v>
       </c>
@@ -3430,10 +3443,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="54"/>
+    <row r="43" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="25">
         <v>9</v>
       </c>
@@ -3441,7 +3454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="41" t="s">
         <v>449</v>
       </c>
@@ -3458,7 +3471,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="45"/>
@@ -3469,7 +3482,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="45"/>
@@ -3480,7 +3493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="46"/>
@@ -3491,14 +3504,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="47" t="s">
         <v>450</v>
       </c>
       <c r="B48" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="50" t="s">
         <v>421</v>
       </c>
       <c r="D48" s="23">
@@ -3508,10 +3521,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="55"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="53"/>
+    <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="24">
         <v>2</v>
       </c>
@@ -3519,10 +3532,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="53"/>
+    <row r="50" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="24">
         <v>8</v>
       </c>
@@ -3530,10 +3543,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="54"/>
+    <row r="51" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="25">
         <v>9</v>
       </c>
@@ -3541,7 +3554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="41" t="s">
         <v>344</v>
       </c>
@@ -3558,7 +3571,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A53" s="42"/>
       <c r="B53" s="42"/>
       <c r="C53" s="45"/>
@@ -3569,7 +3582,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="45"/>
@@ -3580,7 +3593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="C55" s="46"/>
@@ -3591,14 +3604,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="47" t="s">
         <v>346</v>
       </c>
       <c r="B56" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="50" t="s">
         <v>423</v>
       </c>
       <c r="D56" s="23">
@@ -3608,10 +3621,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="53"/>
+    <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="51"/>
       <c r="D57" s="24">
         <v>2</v>
       </c>
@@ -3619,10 +3632,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="55"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="53"/>
+    <row r="58" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="51"/>
       <c r="D58" s="24">
         <v>8</v>
       </c>
@@ -3630,10 +3643,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="48"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="54"/>
+    <row r="59" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="25">
         <v>9</v>
       </c>
@@ -3641,7 +3654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="41" t="s">
         <v>451</v>
       </c>
@@ -3658,7 +3671,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="45"/>
@@ -3669,7 +3682,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A62" s="42"/>
       <c r="B62" s="42"/>
       <c r="C62" s="45"/>
@@ -3680,7 +3693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="46"/>
@@ -3691,14 +3704,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="47" t="s">
         <v>452</v>
       </c>
       <c r="B64" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="C64" s="52" t="s">
+      <c r="C64" s="50" t="s">
         <v>425</v>
       </c>
       <c r="D64" s="23">
@@ -3708,10 +3721,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="55"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="53"/>
+    <row r="65" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A65" s="48"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="51"/>
       <c r="D65" s="24">
         <v>2</v>
       </c>
@@ -3719,10 +3732,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="55"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="53"/>
+    <row r="66" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A66" s="48"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="24">
         <v>8</v>
       </c>
@@ -3730,10 +3743,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="48"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="54"/>
+    <row r="67" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="49"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="25">
         <v>9</v>
       </c>
@@ -3741,7 +3754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="21.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="41" t="s">
         <v>453</v>
       </c>
@@ -3758,7 +3771,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" ht="18.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
       <c r="C69" s="46"/>
@@ -3769,14 +3782,14 @@
         <v>310</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="47" t="s">
         <v>351</v>
       </c>
       <c r="B70" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="C70" s="52" t="s">
+      <c r="C70" s="50" t="s">
         <v>427</v>
       </c>
       <c r="D70" s="23">
@@ -3786,10 +3799,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="55"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="53"/>
+    <row r="71" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A71" s="48"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="51"/>
       <c r="D71" s="24">
         <v>2</v>
       </c>
@@ -3797,10 +3810,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="55"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="53"/>
+    <row r="72" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A72" s="48"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="24">
         <v>8</v>
       </c>
@@ -3808,10 +3821,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="48"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="54"/>
+    <row r="73" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="49"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="52"/>
       <c r="D73" s="25">
         <v>9</v>
       </c>
@@ -3819,7 +3832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="41" t="s">
         <v>353</v>
       </c>
@@ -3836,7 +3849,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
       <c r="C75" s="45"/>
@@ -3847,7 +3860,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
       <c r="C76" s="45"/>
@@ -3858,7 +3871,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="C77" s="46"/>
@@ -3869,14 +3882,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="47" t="s">
         <v>355</v>
       </c>
       <c r="B78" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C78" s="50" t="s">
         <v>429</v>
       </c>
       <c r="D78" s="23">
@@ -3886,10 +3899,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="55"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="53"/>
+    <row r="79" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A79" s="48"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="24">
         <v>2</v>
       </c>
@@ -3897,10 +3910,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="55"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="53"/>
+    <row r="80" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A80" s="48"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="24">
         <v>8</v>
       </c>
@@ -3908,10 +3921,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="48"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="54"/>
+    <row r="81" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="49"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="52"/>
       <c r="D81" s="25">
         <v>9</v>
       </c>
@@ -3919,7 +3932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="41" t="s">
         <v>357</v>
       </c>
@@ -3936,7 +3949,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="42"/>
       <c r="B83" s="42"/>
       <c r="C83" s="45"/>
@@ -3947,7 +3960,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="42"/>
       <c r="B84" s="42"/>
       <c r="C84" s="45"/>
@@ -3958,7 +3971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="C85" s="46"/>
@@ -3969,14 +3982,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="47" t="s">
         <v>359</v>
       </c>
       <c r="B86" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C86" s="50" t="s">
         <v>430</v>
       </c>
       <c r="D86" s="23">
@@ -3986,10 +3999,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="55"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="53"/>
+    <row r="87" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A87" s="48"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="51"/>
       <c r="D87" s="24">
         <v>2</v>
       </c>
@@ -3997,10 +4010,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="55"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="53"/>
+    <row r="88" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A88" s="48"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="51"/>
       <c r="D88" s="24">
         <v>8</v>
       </c>
@@ -4008,10 +4021,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="48"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="54"/>
+    <row r="89" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A89" s="49"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="25">
         <v>9</v>
       </c>
@@ -4019,7 +4032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="41" t="s">
         <v>361</v>
       </c>
@@ -4036,7 +4049,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A91" s="42"/>
       <c r="B91" s="42"/>
       <c r="C91" s="45"/>
@@ -4047,7 +4060,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A92" s="42"/>
       <c r="B92" s="42"/>
       <c r="C92" s="45"/>
@@ -4058,7 +4071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93" s="43"/>
       <c r="B93" s="43"/>
       <c r="C93" s="46"/>
@@ -4069,14 +4082,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="47" t="s">
         <v>363</v>
       </c>
       <c r="B94" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="C94" s="52" t="s">
+      <c r="C94" s="50" t="s">
         <v>432</v>
       </c>
       <c r="D94" s="23">
@@ -4086,10 +4099,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="55"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="53"/>
+    <row r="95" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A95" s="48"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="51"/>
       <c r="D95" s="24">
         <v>2</v>
       </c>
@@ -4097,10 +4110,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="55"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="53"/>
+    <row r="96" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A96" s="48"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="51"/>
       <c r="D96" s="24">
         <v>8</v>
       </c>
@@ -4108,10 +4121,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="48"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="54"/>
+    <row r="97" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A97" s="49"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="52"/>
       <c r="D97" s="25">
         <v>9</v>
       </c>
@@ -4119,7 +4132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="41" t="s">
         <v>365</v>
       </c>
@@ -4136,7 +4149,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="42"/>
       <c r="B99" s="42"/>
       <c r="C99" s="45"/>
@@ -4147,7 +4160,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="42"/>
       <c r="B100" s="42"/>
       <c r="C100" s="45"/>
@@ -4158,7 +4171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="43"/>
       <c r="B101" s="43"/>
       <c r="C101" s="46"/>
@@ -4169,14 +4182,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="47" t="s">
         <v>367</v>
       </c>
       <c r="B102" s="47" t="s">
         <v>368</v>
       </c>
-      <c r="C102" s="52" t="s">
+      <c r="C102" s="50" t="s">
         <v>433</v>
       </c>
       <c r="D102" s="23">
@@ -4186,10 +4199,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="55"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="53"/>
+    <row r="103" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A103" s="48"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="51"/>
       <c r="D103" s="24">
         <v>2</v>
       </c>
@@ -4197,10 +4210,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="55"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="53"/>
+    <row r="104" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A104" s="48"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="51"/>
       <c r="D104" s="24">
         <v>8</v>
       </c>
@@ -4208,10 +4221,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="48"/>
-      <c r="B105" s="48"/>
-      <c r="C105" s="54"/>
+    <row r="105" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A105" s="49"/>
+      <c r="B105" s="49"/>
+      <c r="C105" s="52"/>
       <c r="D105" s="25">
         <v>9</v>
       </c>
@@ -4219,7 +4232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="41" t="s">
         <v>369</v>
       </c>
@@ -4236,7 +4249,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="42"/>
       <c r="B107" s="42"/>
       <c r="C107" s="45"/>
@@ -4247,7 +4260,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="42"/>
       <c r="B108" s="42"/>
       <c r="C108" s="45"/>
@@ -4258,7 +4271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A109" s="43"/>
       <c r="B109" s="43"/>
       <c r="C109" s="46"/>
@@ -4269,14 +4282,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="47" t="s">
         <v>371</v>
       </c>
       <c r="B110" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="C110" s="52" t="s">
+      <c r="C110" s="50" t="s">
         <v>433</v>
       </c>
       <c r="D110" s="23">
@@ -4286,10 +4299,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="55"/>
-      <c r="B111" s="55"/>
-      <c r="C111" s="53"/>
+    <row r="111" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="48"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="51"/>
       <c r="D111" s="24">
         <v>2</v>
       </c>
@@ -4297,10 +4310,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="55"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="53"/>
+    <row r="112" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="48"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="51"/>
       <c r="D112" s="24">
         <v>8</v>
       </c>
@@ -4308,10 +4321,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="48"/>
-      <c r="B113" s="48"/>
-      <c r="C113" s="54"/>
+    <row r="113" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A113" s="49"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="52"/>
       <c r="D113" s="25">
         <v>9</v>
       </c>
@@ -4319,7 +4332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="41" t="s">
         <v>373</v>
       </c>
@@ -4336,7 +4349,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A115" s="42"/>
       <c r="B115" s="42"/>
       <c r="C115" s="45"/>
@@ -4347,7 +4360,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A116" s="42"/>
       <c r="B116" s="42"/>
       <c r="C116" s="45"/>
@@ -4358,7 +4371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="43"/>
       <c r="B117" s="43"/>
       <c r="C117" s="46"/>
@@ -4369,14 +4382,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="47" t="s">
         <v>375</v>
       </c>
       <c r="B118" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="C118" s="52" t="s">
+      <c r="C118" s="50" t="s">
         <v>434</v>
       </c>
       <c r="D118" s="23">
@@ -4386,10 +4399,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="55"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="53"/>
+    <row r="119" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="48"/>
+      <c r="B119" s="48"/>
+      <c r="C119" s="51"/>
       <c r="D119" s="24">
         <v>2</v>
       </c>
@@ -4397,10 +4410,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="55"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="53"/>
+    <row r="120" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="48"/>
+      <c r="B120" s="48"/>
+      <c r="C120" s="51"/>
       <c r="D120" s="24">
         <v>8</v>
       </c>
@@ -4408,10 +4421,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="48"/>
-      <c r="B121" s="48"/>
-      <c r="C121" s="54"/>
+    <row r="121" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A121" s="49"/>
+      <c r="B121" s="49"/>
+      <c r="C121" s="52"/>
       <c r="D121" s="25">
         <v>9</v>
       </c>
@@ -4419,7 +4432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="41" t="s">
         <v>377</v>
       </c>
@@ -4436,7 +4449,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A123" s="42"/>
       <c r="B123" s="42"/>
       <c r="C123" s="45"/>
@@ -4447,7 +4460,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A124" s="43"/>
       <c r="B124" s="43"/>
       <c r="C124" s="46"/>
@@ -4458,14 +4471,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="47" t="s">
         <v>379</v>
       </c>
       <c r="B125" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="C125" s="52" t="s">
+      <c r="C125" s="50" t="s">
         <v>435</v>
       </c>
       <c r="D125" s="23">
@@ -4475,10 +4488,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="55"/>
-      <c r="B126" s="55"/>
-      <c r="C126" s="53"/>
+    <row r="126" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A126" s="48"/>
+      <c r="B126" s="48"/>
+      <c r="C126" s="51"/>
       <c r="D126" s="24">
         <v>2</v>
       </c>
@@ -4486,10 +4499,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="55"/>
-      <c r="B127" s="55"/>
-      <c r="C127" s="53"/>
+    <row r="127" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A127" s="48"/>
+      <c r="B127" s="48"/>
+      <c r="C127" s="51"/>
       <c r="D127" s="24">
         <v>8</v>
       </c>
@@ -4497,10 +4510,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="48"/>
-      <c r="B128" s="48"/>
-      <c r="C128" s="54"/>
+    <row r="128" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A128" s="49"/>
+      <c r="B128" s="49"/>
+      <c r="C128" s="52"/>
       <c r="D128" s="25">
         <v>9</v>
       </c>
@@ -4508,7 +4521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="41" t="s">
         <v>381</v>
       </c>
@@ -4525,7 +4538,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A130" s="42"/>
       <c r="B130" s="42"/>
       <c r="C130" s="45"/>
@@ -4536,7 +4549,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A131" s="42"/>
       <c r="B131" s="42"/>
       <c r="C131" s="45"/>
@@ -4547,7 +4560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A132" s="43"/>
       <c r="B132" s="43"/>
       <c r="C132" s="46"/>
@@ -4558,14 +4571,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="47" t="s">
         <v>383</v>
       </c>
       <c r="B133" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="C133" s="52" t="s">
+      <c r="C133" s="50" t="s">
         <v>436</v>
       </c>
       <c r="D133" s="23">
@@ -4575,10 +4588,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="55"/>
-      <c r="B134" s="55"/>
-      <c r="C134" s="53"/>
+    <row r="134" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A134" s="48"/>
+      <c r="B134" s="48"/>
+      <c r="C134" s="51"/>
       <c r="D134" s="24">
         <v>2</v>
       </c>
@@ -4586,10 +4599,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="55"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="53"/>
+    <row r="135" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A135" s="48"/>
+      <c r="B135" s="48"/>
+      <c r="C135" s="51"/>
       <c r="D135" s="24">
         <v>8</v>
       </c>
@@ -4597,10 +4610,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="48"/>
-      <c r="B136" s="48"/>
-      <c r="C136" s="54"/>
+    <row r="136" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A136" s="49"/>
+      <c r="B136" s="49"/>
+      <c r="C136" s="52"/>
       <c r="D136" s="25">
         <v>9</v>
       </c>
@@ -4608,7 +4621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="41" t="s">
         <v>385</v>
       </c>
@@ -4625,7 +4638,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A138" s="42"/>
       <c r="B138" s="42"/>
       <c r="C138" s="45"/>
@@ -4636,7 +4649,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A139" s="42"/>
       <c r="B139" s="42"/>
       <c r="C139" s="45"/>
@@ -4647,7 +4660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A140" s="43"/>
       <c r="B140" s="43"/>
       <c r="C140" s="46"/>
@@ -4658,14 +4671,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="47" t="s">
         <v>387</v>
       </c>
       <c r="B141" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="C141" s="52" t="s">
+      <c r="C141" s="50" t="s">
         <v>436</v>
       </c>
       <c r="D141" s="23">
@@ -4675,10 +4688,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="55"/>
-      <c r="B142" s="55"/>
-      <c r="C142" s="53"/>
+    <row r="142" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A142" s="48"/>
+      <c r="B142" s="48"/>
+      <c r="C142" s="51"/>
       <c r="D142" s="24">
         <v>2</v>
       </c>
@@ -4686,10 +4699,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="48"/>
-      <c r="B143" s="48"/>
-      <c r="C143" s="54"/>
+    <row r="143" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A143" s="49"/>
+      <c r="B143" s="49"/>
+      <c r="C143" s="52"/>
       <c r="D143" s="25">
         <v>8</v>
       </c>
@@ -4697,7 +4710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="41" t="s">
         <v>389</v>
       </c>
@@ -4714,7 +4727,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A145" s="42"/>
       <c r="B145" s="42"/>
       <c r="C145" s="45"/>
@@ -4725,7 +4738,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A146" s="43"/>
       <c r="B146" s="43"/>
       <c r="C146" s="46"/>
@@ -4736,14 +4749,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="47" t="s">
         <v>391</v>
       </c>
       <c r="B147" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="C147" s="52" t="s">
+      <c r="C147" s="50" t="s">
         <v>437</v>
       </c>
       <c r="D147" s="23">
@@ -4753,10 +4766,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A148" s="55"/>
-      <c r="B148" s="55"/>
-      <c r="C148" s="53"/>
+    <row r="148" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A148" s="48"/>
+      <c r="B148" s="48"/>
+      <c r="C148" s="51"/>
       <c r="D148" s="24">
         <v>2</v>
       </c>
@@ -4764,10 +4777,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="55"/>
-      <c r="B149" s="55"/>
-      <c r="C149" s="53"/>
+    <row r="149" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A149" s="48"/>
+      <c r="B149" s="48"/>
+      <c r="C149" s="51"/>
       <c r="D149" s="24">
         <v>8</v>
       </c>
@@ -4775,10 +4788,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="48"/>
-      <c r="B150" s="48"/>
-      <c r="C150" s="54"/>
+    <row r="150" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A150" s="49"/>
+      <c r="B150" s="49"/>
+      <c r="C150" s="52"/>
       <c r="D150" s="25">
         <v>9</v>
       </c>
@@ -4786,7 +4799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="41" t="s">
         <v>393</v>
       </c>
@@ -4803,7 +4816,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A152" s="42"/>
       <c r="B152" s="42"/>
       <c r="C152" s="45"/>
@@ -4814,7 +4827,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A153" s="42"/>
       <c r="B153" s="42"/>
       <c r="C153" s="45"/>
@@ -4825,7 +4838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A154" s="43"/>
       <c r="B154" s="43"/>
       <c r="C154" s="46"/>
@@ -4836,14 +4849,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="47" t="s">
         <v>395</v>
       </c>
       <c r="B155" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="C155" s="52" t="s">
+      <c r="C155" s="50" t="s">
         <v>439</v>
       </c>
       <c r="D155" s="23">
@@ -4853,10 +4866,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="55"/>
-      <c r="B156" s="55"/>
-      <c r="C156" s="53"/>
+    <row r="156" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A156" s="48"/>
+      <c r="B156" s="48"/>
+      <c r="C156" s="51"/>
       <c r="D156" s="24">
         <v>2</v>
       </c>
@@ -4864,10 +4877,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="55"/>
-      <c r="B157" s="55"/>
-      <c r="C157" s="53"/>
+    <row r="157" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A157" s="48"/>
+      <c r="B157" s="48"/>
+      <c r="C157" s="51"/>
       <c r="D157" s="24">
         <v>8</v>
       </c>
@@ -4875,10 +4888,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="48"/>
-      <c r="B158" s="48"/>
-      <c r="C158" s="54"/>
+    <row r="158" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A158" s="49"/>
+      <c r="B158" s="49"/>
+      <c r="C158" s="52"/>
       <c r="D158" s="25">
         <v>9</v>
       </c>
@@ -4886,7 +4899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="41" t="s">
         <v>397</v>
       </c>
@@ -4903,7 +4916,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A160" s="42"/>
       <c r="B160" s="42"/>
       <c r="C160" s="45"/>
@@ -4914,7 +4927,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A161" s="42"/>
       <c r="B161" s="42"/>
       <c r="C161" s="45"/>
@@ -4925,7 +4938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A162" s="43"/>
       <c r="B162" s="43"/>
       <c r="C162" s="46"/>
@@ -4936,14 +4949,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="47" t="s">
         <v>399</v>
       </c>
       <c r="B163" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="C163" s="52" t="s">
+      <c r="C163" s="50" t="s">
         <v>441</v>
       </c>
       <c r="D163" s="23">
@@ -4953,10 +4966,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A164" s="55"/>
-      <c r="B164" s="55"/>
-      <c r="C164" s="53"/>
+    <row r="164" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A164" s="48"/>
+      <c r="B164" s="48"/>
+      <c r="C164" s="51"/>
       <c r="D164" s="24">
         <v>2</v>
       </c>
@@ -4964,10 +4977,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A165" s="55"/>
-      <c r="B165" s="55"/>
-      <c r="C165" s="53"/>
+    <row r="165" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A165" s="48"/>
+      <c r="B165" s="48"/>
+      <c r="C165" s="51"/>
       <c r="D165" s="24">
         <v>8</v>
       </c>
@@ -4975,10 +4988,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="48"/>
-      <c r="B166" s="48"/>
-      <c r="C166" s="54"/>
+    <row r="166" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A166" s="49"/>
+      <c r="B166" s="49"/>
+      <c r="C166" s="52"/>
       <c r="D166" s="25">
         <v>9</v>
       </c>
@@ -4986,7 +4999,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="41" t="s">
         <v>401</v>
       </c>
@@ -5003,7 +5016,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A168" s="42"/>
       <c r="B168" s="42"/>
       <c r="C168" s="45"/>
@@ -5014,7 +5027,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A169" s="42"/>
       <c r="B169" s="42"/>
       <c r="C169" s="45"/>
@@ -5025,7 +5038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A170" s="43"/>
       <c r="B170" s="43"/>
       <c r="C170" s="46"/>
@@ -5036,14 +5049,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="47" t="s">
         <v>403</v>
       </c>
       <c r="B171" s="47" t="s">
         <v>404</v>
       </c>
-      <c r="C171" s="52" t="s">
+      <c r="C171" s="50" t="s">
         <v>443</v>
       </c>
       <c r="D171" s="23">
@@ -5053,10 +5066,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A172" s="55"/>
-      <c r="B172" s="55"/>
-      <c r="C172" s="53"/>
+    <row r="172" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A172" s="48"/>
+      <c r="B172" s="48"/>
+      <c r="C172" s="51"/>
       <c r="D172" s="24">
         <v>2</v>
       </c>
@@ -5064,10 +5077,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A173" s="55"/>
-      <c r="B173" s="55"/>
-      <c r="C173" s="53"/>
+    <row r="173" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A173" s="48"/>
+      <c r="B173" s="48"/>
+      <c r="C173" s="51"/>
       <c r="D173" s="24">
         <v>8</v>
       </c>
@@ -5075,10 +5088,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="48"/>
-      <c r="B174" s="48"/>
-      <c r="C174" s="54"/>
+    <row r="174" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A174" s="49"/>
+      <c r="B174" s="49"/>
+      <c r="C174" s="52"/>
       <c r="D174" s="25">
         <v>9</v>
       </c>
@@ -5086,7 +5099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="41" t="s">
         <v>405</v>
       </c>
@@ -5103,7 +5116,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A176" s="42"/>
       <c r="B176" s="42"/>
       <c r="C176" s="45"/>
@@ -5114,7 +5127,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A177" s="42"/>
       <c r="B177" s="42"/>
       <c r="C177" s="45"/>
@@ -5125,7 +5138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A178" s="43"/>
       <c r="B178" s="43"/>
       <c r="C178" s="46"/>
@@ -5136,14 +5149,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="47" t="s">
         <v>407</v>
       </c>
       <c r="B179" s="47" t="s">
         <v>408</v>
       </c>
-      <c r="C179" s="52" t="s">
+      <c r="C179" s="50" t="s">
         <v>445</v>
       </c>
       <c r="D179" s="23">
@@ -5153,10 +5166,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A180" s="55"/>
-      <c r="B180" s="55"/>
-      <c r="C180" s="53"/>
+    <row r="180" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A180" s="48"/>
+      <c r="B180" s="48"/>
+      <c r="C180" s="51"/>
       <c r="D180" s="24">
         <v>2</v>
       </c>
@@ -5164,10 +5177,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A181" s="55"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="53"/>
+    <row r="181" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A181" s="48"/>
+      <c r="B181" s="48"/>
+      <c r="C181" s="51"/>
       <c r="D181" s="24">
         <v>8</v>
       </c>
@@ -5175,10 +5188,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="48"/>
-      <c r="B182" s="48"/>
-      <c r="C182" s="54"/>
+    <row r="182" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A182" s="49"/>
+      <c r="B182" s="49"/>
+      <c r="C182" s="52"/>
       <c r="D182" s="25">
         <v>9</v>
       </c>
@@ -5186,7 +5199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="41" t="s">
         <v>311</v>
       </c>
@@ -5203,7 +5216,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A184" s="43"/>
       <c r="B184" s="43"/>
       <c r="C184" s="46"/>
@@ -5214,14 +5227,14 @@
         <v>313</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="61" t="s">
+    <row r="185" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A185" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="B185" s="61" t="s">
+      <c r="B185" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="C185" s="52" t="s">
+      <c r="C185" s="50" t="s">
         <v>411</v>
       </c>
       <c r="D185" s="23" t="s">
@@ -5229,10 +5242,10 @@
       </c>
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="62"/>
-      <c r="B186" s="62"/>
-      <c r="C186" s="54"/>
+    <row r="186" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A186" s="54"/>
+      <c r="B186" s="54"/>
+      <c r="C186" s="52"/>
       <c r="D186" s="24">
         <v>100</v>
       </c>
@@ -5240,7 +5253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="41" t="s">
         <v>324</v>
       </c>
@@ -5255,7 +5268,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A188" s="42"/>
       <c r="B188" s="42"/>
       <c r="C188" s="45"/>
@@ -5266,7 +5279,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A189" s="42"/>
       <c r="B189" s="42"/>
       <c r="C189" s="45"/>
@@ -5277,7 +5290,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A190" s="42"/>
       <c r="B190" s="42"/>
       <c r="C190" s="45"/>
@@ -5288,7 +5301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A191" s="43"/>
       <c r="B191" s="43"/>
       <c r="C191" s="46"/>
@@ -5299,14 +5312,14 @@
         <v>328</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="47" t="s">
         <v>318</v>
       </c>
       <c r="B192" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="C192" s="52"/>
+      <c r="C192" s="50"/>
       <c r="D192" s="23">
         <v>1</v>
       </c>
@@ -5314,10 +5327,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A193" s="55"/>
-      <c r="B193" s="55"/>
-      <c r="C193" s="53"/>
+    <row r="193" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A193" s="48"/>
+      <c r="B193" s="48"/>
+      <c r="C193" s="51"/>
       <c r="D193" s="24">
         <v>2</v>
       </c>
@@ -5325,10 +5338,10 @@
         <v>321</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A194" s="55"/>
-      <c r="B194" s="55"/>
-      <c r="C194" s="53"/>
+    <row r="194" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A194" s="48"/>
+      <c r="B194" s="48"/>
+      <c r="C194" s="51"/>
       <c r="D194" s="24">
         <v>3</v>
       </c>
@@ -5336,10 +5349,10 @@
         <v>322</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A195" s="55"/>
-      <c r="B195" s="55"/>
-      <c r="C195" s="53"/>
+    <row r="195" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A195" s="48"/>
+      <c r="B195" s="48"/>
+      <c r="C195" s="51"/>
       <c r="D195" s="24">
         <v>4</v>
       </c>
@@ -5347,10 +5360,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A196" s="55"/>
-      <c r="B196" s="55"/>
-      <c r="C196" s="53"/>
+    <row r="196" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A196" s="48"/>
+      <c r="B196" s="48"/>
+      <c r="C196" s="51"/>
       <c r="D196" s="24">
         <v>5</v>
       </c>
@@ -5358,10 +5371,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="48"/>
-      <c r="B197" s="48"/>
-      <c r="C197" s="54"/>
+    <row r="197" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A197" s="49"/>
+      <c r="B197" s="49"/>
+      <c r="C197" s="52"/>
       <c r="D197" s="25">
         <v>6</v>
       </c>
@@ -5369,11 +5382,11 @@
         <v>323</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="56" t="s">
+    <row r="198" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A198" s="57" t="s">
         <v>459</v>
       </c>
-      <c r="B198" s="56" t="s">
+      <c r="B198" s="57" t="s">
         <v>518</v>
       </c>
       <c r="C198" s="44" t="s">
@@ -5386,9 +5399,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="57"/>
-      <c r="B199" s="57"/>
+    <row r="199" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A199" s="58"/>
+      <c r="B199" s="58"/>
       <c r="C199" s="45"/>
       <c r="D199" s="33">
         <v>2</v>
@@ -5397,9 +5410,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="57"/>
-      <c r="B200" s="57"/>
+    <row r="200" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A200" s="58"/>
+      <c r="B200" s="58"/>
       <c r="C200" s="45"/>
       <c r="D200" s="33">
         <v>3</v>
@@ -5408,9 +5421,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="58"/>
-      <c r="B201" s="58"/>
+    <row r="201" spans="1:5" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A201" s="59"/>
+      <c r="B201" s="59"/>
       <c r="C201" s="46"/>
       <c r="D201" s="31">
         <v>9</v>
@@ -5419,14 +5432,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="47" t="s">
         <v>460</v>
       </c>
       <c r="B202" s="47" t="s">
         <v>519</v>
       </c>
-      <c r="C202" s="52" t="s">
+      <c r="C202" s="50" t="s">
         <v>456</v>
       </c>
       <c r="D202" s="34">
@@ -5436,10 +5449,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="55"/>
-      <c r="B203" s="55"/>
-      <c r="C203" s="53"/>
+    <row r="203" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A203" s="48"/>
+      <c r="B203" s="48"/>
+      <c r="C203" s="51"/>
       <c r="D203" s="35">
         <v>2</v>
       </c>
@@ -5447,10 +5460,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="55"/>
-      <c r="B204" s="55"/>
-      <c r="C204" s="53"/>
+    <row r="204" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A204" s="48"/>
+      <c r="B204" s="48"/>
+      <c r="C204" s="51"/>
       <c r="D204" s="35">
         <v>3</v>
       </c>
@@ -5458,10 +5471,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="48"/>
-      <c r="B205" s="48"/>
-      <c r="C205" s="54"/>
+    <row r="205" spans="1:5" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A205" s="49"/>
+      <c r="B205" s="49"/>
+      <c r="C205" s="52"/>
       <c r="D205" s="36">
         <v>9</v>
       </c>
@@ -5469,7 +5482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="41" t="s">
         <v>458</v>
       </c>
@@ -5486,7 +5499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A207" s="42"/>
       <c r="B207" s="42"/>
       <c r="C207" s="45"/>
@@ -5497,7 +5510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A208" s="42"/>
       <c r="B208" s="42"/>
       <c r="C208" s="45"/>
@@ -5508,7 +5521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A209" s="43"/>
       <c r="B209" s="43"/>
       <c r="C209" s="46"/>
@@ -5519,14 +5532,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B210" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C210" s="52"/>
+      <c r="C210" s="50"/>
       <c r="D210" s="23">
         <v>1</v>
       </c>
@@ -5534,10 +5547,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A211" s="55"/>
-      <c r="B211" s="55"/>
-      <c r="C211" s="53"/>
+    <row r="211" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A211" s="48"/>
+      <c r="B211" s="48"/>
+      <c r="C211" s="51"/>
       <c r="D211" s="24">
         <v>2</v>
       </c>
@@ -5545,10 +5558,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A212" s="55"/>
-      <c r="B212" s="55"/>
-      <c r="C212" s="53"/>
+    <row r="212" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A212" s="48"/>
+      <c r="B212" s="48"/>
+      <c r="C212" s="51"/>
       <c r="D212" s="24">
         <v>3</v>
       </c>
@@ -5556,10 +5569,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A213" s="55"/>
-      <c r="B213" s="55"/>
-      <c r="C213" s="53"/>
+    <row r="213" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A213" s="48"/>
+      <c r="B213" s="48"/>
+      <c r="C213" s="51"/>
       <c r="D213" s="24">
         <v>4</v>
       </c>
@@ -5567,10 +5580,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="48"/>
-      <c r="B214" s="48"/>
-      <c r="C214" s="54"/>
+    <row r="214" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A214" s="49"/>
+      <c r="B214" s="49"/>
+      <c r="C214" s="52"/>
       <c r="D214" s="25">
         <v>5</v>
       </c>
@@ -5578,7 +5591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:5" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A215" s="14" t="s">
         <v>315</v>
       </c>
@@ -5588,7 +5601,7 @@
       <c r="D215" s="29"/>
       <c r="E215" s="11"/>
     </row>
-    <row r="216" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:5" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A216" s="15" t="s">
         <v>316</v>
       </c>
@@ -5599,7 +5612,7 @@
       <c r="D216" s="30"/>
       <c r="E216" s="12"/>
     </row>
-    <row r="217" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="41" t="s">
         <v>462</v>
       </c>
@@ -5614,7 +5627,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A218" s="42"/>
       <c r="B218" s="42"/>
       <c r="C218" s="45"/>
@@ -5625,7 +5638,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A219" s="42"/>
       <c r="B219" s="42"/>
       <c r="C219" s="45"/>
@@ -5636,7 +5649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A220" s="42"/>
       <c r="B220" s="42"/>
       <c r="C220" s="45"/>
@@ -5647,7 +5660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A221" s="42"/>
       <c r="B221" s="42"/>
       <c r="C221" s="45"/>
@@ -5658,7 +5671,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A222" s="42"/>
       <c r="B222" s="42"/>
       <c r="C222" s="45"/>
@@ -5669,7 +5682,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A223" s="43"/>
       <c r="B223" s="43"/>
       <c r="C223" s="46"/>
@@ -5680,14 +5693,14 @@
         <v>144</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="47" t="s">
         <v>463</v>
       </c>
       <c r="B224" s="47" t="s">
         <v>520</v>
       </c>
-      <c r="C224" s="52"/>
+      <c r="C224" s="50"/>
       <c r="D224" s="23">
         <v>1</v>
       </c>
@@ -5695,10 +5708,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A225" s="55"/>
-      <c r="B225" s="55"/>
-      <c r="C225" s="53"/>
+    <row r="225" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A225" s="48"/>
+      <c r="B225" s="48"/>
+      <c r="C225" s="51"/>
       <c r="D225" s="24">
         <v>2</v>
       </c>
@@ -5706,10 +5719,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="48"/>
-      <c r="B226" s="48"/>
-      <c r="C226" s="54"/>
+    <row r="226" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A226" s="49"/>
+      <c r="B226" s="49"/>
+      <c r="C226" s="52"/>
       <c r="D226" s="25">
         <v>3</v>
       </c>
@@ -5717,7 +5730,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="41" t="s">
         <v>567</v>
       </c>
@@ -5732,7 +5745,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A228" s="42"/>
       <c r="B228" s="42"/>
       <c r="C228" s="45"/>
@@ -5743,7 +5756,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A229" s="42"/>
       <c r="B229" s="42"/>
       <c r="C229" s="45"/>
@@ -5754,7 +5767,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A230" s="43"/>
       <c r="B230" s="43"/>
       <c r="C230" s="46"/>
@@ -5765,14 +5778,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="47" t="s">
         <v>464</v>
       </c>
       <c r="B231" s="47" t="s">
         <v>524</v>
       </c>
-      <c r="C231" s="52"/>
+      <c r="C231" s="50"/>
       <c r="D231" s="23">
         <v>1</v>
       </c>
@@ -5780,10 +5793,10 @@
         <v>152</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A232" s="55"/>
-      <c r="B232" s="55"/>
-      <c r="C232" s="53"/>
+    <row r="232" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A232" s="48"/>
+      <c r="B232" s="48"/>
+      <c r="C232" s="51"/>
       <c r="D232" s="24">
         <v>2</v>
       </c>
@@ -5791,10 +5804,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A233" s="55"/>
-      <c r="B233" s="55"/>
-      <c r="C233" s="53"/>
+    <row r="233" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A233" s="48"/>
+      <c r="B233" s="48"/>
+      <c r="C233" s="51"/>
       <c r="D233" s="24">
         <v>3</v>
       </c>
@@ -5802,10 +5815,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A234" s="55"/>
-      <c r="B234" s="55"/>
-      <c r="C234" s="53"/>
+    <row r="234" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A234" s="48"/>
+      <c r="B234" s="48"/>
+      <c r="C234" s="51"/>
       <c r="D234" s="24">
         <v>4</v>
       </c>
@@ -5813,10 +5826,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="48"/>
-      <c r="B235" s="48"/>
-      <c r="C235" s="54"/>
+    <row r="235" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A235" s="49"/>
+      <c r="B235" s="49"/>
+      <c r="C235" s="52"/>
       <c r="D235" s="25">
         <v>6</v>
       </c>
@@ -5824,7 +5837,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="41" t="s">
         <v>465</v>
       </c>
@@ -5839,7 +5852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A237" s="42"/>
       <c r="B237" s="42"/>
       <c r="C237" s="45"/>
@@ -5850,7 +5863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A238" s="42"/>
       <c r="B238" s="42"/>
       <c r="C238" s="45"/>
@@ -5861,7 +5874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A239" s="42"/>
       <c r="B239" s="42"/>
       <c r="C239" s="45"/>
@@ -5872,7 +5885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A240" s="42"/>
       <c r="B240" s="42"/>
       <c r="C240" s="45"/>
@@ -5883,7 +5896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A241" s="42"/>
       <c r="B241" s="42"/>
       <c r="C241" s="45"/>
@@ -5894,7 +5907,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A242" s="42"/>
       <c r="B242" s="42"/>
       <c r="C242" s="45"/>
@@ -5905,7 +5918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A243" s="43"/>
       <c r="B243" s="43"/>
       <c r="C243" s="46"/>
@@ -5916,14 +5929,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="47" t="s">
         <v>466</v>
       </c>
       <c r="B244" s="47" t="s">
         <v>525</v>
       </c>
-      <c r="C244" s="52"/>
+      <c r="C244" s="50"/>
       <c r="D244" s="23">
         <v>1</v>
       </c>
@@ -5931,10 +5944,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A245" s="55"/>
-      <c r="B245" s="55"/>
-      <c r="C245" s="53"/>
+    <row r="245" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A245" s="48"/>
+      <c r="B245" s="48"/>
+      <c r="C245" s="51"/>
       <c r="D245" s="24">
         <v>2</v>
       </c>
@@ -5942,10 +5955,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A246" s="55"/>
-      <c r="B246" s="55"/>
-      <c r="C246" s="53"/>
+    <row r="246" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A246" s="48"/>
+      <c r="B246" s="48"/>
+      <c r="C246" s="51"/>
       <c r="D246" s="24">
         <v>3</v>
       </c>
@@ -5953,10 +5966,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A247" s="55"/>
-      <c r="B247" s="55"/>
-      <c r="C247" s="53"/>
+    <row r="247" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A247" s="48"/>
+      <c r="B247" s="48"/>
+      <c r="C247" s="51"/>
       <c r="D247" s="24">
         <v>4</v>
       </c>
@@ -5964,10 +5977,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A248" s="55"/>
-      <c r="B248" s="55"/>
-      <c r="C248" s="53"/>
+    <row r="248" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A248" s="48"/>
+      <c r="B248" s="48"/>
+      <c r="C248" s="51"/>
       <c r="D248" s="24">
         <v>5</v>
       </c>
@@ -5975,10 +5988,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A249" s="55"/>
-      <c r="B249" s="55"/>
-      <c r="C249" s="53"/>
+    <row r="249" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A249" s="48"/>
+      <c r="B249" s="48"/>
+      <c r="C249" s="51"/>
       <c r="D249" s="24">
         <v>6</v>
       </c>
@@ -5986,10 +5999,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A250" s="55"/>
-      <c r="B250" s="55"/>
-      <c r="C250" s="53"/>
+    <row r="250" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A250" s="48"/>
+      <c r="B250" s="48"/>
+      <c r="C250" s="51"/>
       <c r="D250" s="24">
         <v>7</v>
       </c>
@@ -5997,10 +6010,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A251" s="55"/>
-      <c r="B251" s="55"/>
-      <c r="C251" s="53"/>
+    <row r="251" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A251" s="48"/>
+      <c r="B251" s="48"/>
+      <c r="C251" s="51"/>
       <c r="D251" s="24">
         <v>8</v>
       </c>
@@ -6008,10 +6021,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A252" s="55"/>
-      <c r="B252" s="55"/>
-      <c r="C252" s="53"/>
+    <row r="252" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A252" s="48"/>
+      <c r="B252" s="48"/>
+      <c r="C252" s="51"/>
       <c r="D252" s="24">
         <v>9</v>
       </c>
@@ -6019,10 +6032,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A253" s="55"/>
-      <c r="B253" s="55"/>
-      <c r="C253" s="53"/>
+    <row r="253" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A253" s="48"/>
+      <c r="B253" s="48"/>
+      <c r="C253" s="51"/>
       <c r="D253" s="24">
         <v>10</v>
       </c>
@@ -6030,10 +6043,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A254" s="55"/>
-      <c r="B254" s="55"/>
-      <c r="C254" s="53"/>
+    <row r="254" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A254" s="48"/>
+      <c r="B254" s="48"/>
+      <c r="C254" s="51"/>
       <c r="D254" s="24">
         <v>11</v>
       </c>
@@ -6041,10 +6054,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="48"/>
-      <c r="B255" s="48"/>
-      <c r="C255" s="54"/>
+    <row r="255" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A255" s="49"/>
+      <c r="B255" s="49"/>
+      <c r="C255" s="52"/>
       <c r="D255" s="25">
         <v>12</v>
       </c>
@@ -6052,7 +6065,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="41" t="s">
         <v>467</v>
       </c>
@@ -6067,7 +6080,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A257" s="42"/>
       <c r="B257" s="42"/>
       <c r="C257" s="45"/>
@@ -6078,7 +6091,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A258" s="43"/>
       <c r="B258" s="43"/>
       <c r="C258" s="46"/>
@@ -6089,14 +6102,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="47" t="s">
         <v>468</v>
       </c>
       <c r="B259" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="C259" s="52"/>
+      <c r="C259" s="50"/>
       <c r="D259" s="23">
         <v>1</v>
       </c>
@@ -6104,10 +6117,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="55"/>
-      <c r="B260" s="55"/>
-      <c r="C260" s="53"/>
+    <row r="260" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A260" s="48"/>
+      <c r="B260" s="48"/>
+      <c r="C260" s="51"/>
       <c r="D260" s="24">
         <v>2</v>
       </c>
@@ -6115,10 +6128,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A261" s="55"/>
-      <c r="B261" s="55"/>
-      <c r="C261" s="53"/>
+    <row r="261" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A261" s="48"/>
+      <c r="B261" s="48"/>
+      <c r="C261" s="51"/>
       <c r="D261" s="24">
         <v>3</v>
       </c>
@@ -6126,10 +6139,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A262" s="55"/>
-      <c r="B262" s="55"/>
-      <c r="C262" s="53"/>
+    <row r="262" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A262" s="48"/>
+      <c r="B262" s="48"/>
+      <c r="C262" s="51"/>
       <c r="D262" s="24">
         <v>4</v>
       </c>
@@ -6137,10 +6150,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A263" s="55"/>
-      <c r="B263" s="55"/>
-      <c r="C263" s="53"/>
+    <row r="263" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A263" s="48"/>
+      <c r="B263" s="48"/>
+      <c r="C263" s="51"/>
       <c r="D263" s="24">
         <v>5</v>
       </c>
@@ -6148,10 +6161,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A264" s="55"/>
-      <c r="B264" s="55"/>
-      <c r="C264" s="53"/>
+    <row r="264" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A264" s="48"/>
+      <c r="B264" s="48"/>
+      <c r="C264" s="51"/>
       <c r="D264" s="24">
         <v>6</v>
       </c>
@@ -6159,10 +6172,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A265" s="55"/>
-      <c r="B265" s="55"/>
-      <c r="C265" s="53"/>
+    <row r="265" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A265" s="48"/>
+      <c r="B265" s="48"/>
+      <c r="C265" s="51"/>
       <c r="D265" s="24">
         <v>7</v>
       </c>
@@ -6170,10 +6183,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A266" s="55"/>
-      <c r="B266" s="55"/>
-      <c r="C266" s="53"/>
+    <row r="266" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A266" s="48"/>
+      <c r="B266" s="48"/>
+      <c r="C266" s="51"/>
       <c r="D266" s="24">
         <v>8</v>
       </c>
@@ -6181,10 +6194,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A267" s="55"/>
-      <c r="B267" s="55"/>
-      <c r="C267" s="53"/>
+    <row r="267" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A267" s="48"/>
+      <c r="B267" s="48"/>
+      <c r="C267" s="51"/>
       <c r="D267" s="24">
         <v>9</v>
       </c>
@@ -6192,10 +6205,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A268" s="55"/>
-      <c r="B268" s="55"/>
-      <c r="C268" s="53"/>
+    <row r="268" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A268" s="48"/>
+      <c r="B268" s="48"/>
+      <c r="C268" s="51"/>
       <c r="D268" s="24">
         <v>10</v>
       </c>
@@ -6203,10 +6216,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A269" s="55"/>
-      <c r="B269" s="55"/>
-      <c r="C269" s="53"/>
+    <row r="269" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A269" s="48"/>
+      <c r="B269" s="48"/>
+      <c r="C269" s="51"/>
       <c r="D269" s="24">
         <v>11</v>
       </c>
@@ -6214,10 +6227,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A270" s="55"/>
-      <c r="B270" s="55"/>
-      <c r="C270" s="53"/>
+    <row r="270" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A270" s="48"/>
+      <c r="B270" s="48"/>
+      <c r="C270" s="51"/>
       <c r="D270" s="24">
         <v>12</v>
       </c>
@@ -6225,10 +6238,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="48"/>
-      <c r="B271" s="48"/>
-      <c r="C271" s="54"/>
+    <row r="271" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A271" s="49"/>
+      <c r="B271" s="49"/>
+      <c r="C271" s="52"/>
       <c r="D271" s="25">
         <v>13</v>
       </c>
@@ -6236,7 +6249,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="41" t="s">
         <v>469</v>
       </c>
@@ -6251,7 +6264,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A273" s="42"/>
       <c r="B273" s="42"/>
       <c r="C273" s="45"/>
@@ -6262,7 +6275,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A274" s="42"/>
       <c r="B274" s="42"/>
       <c r="C274" s="45"/>
@@ -6273,7 +6286,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A275" s="43"/>
       <c r="B275" s="43"/>
       <c r="C275" s="46"/>
@@ -6284,14 +6297,14 @@
         <v>227</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="47" t="s">
         <v>470</v>
       </c>
       <c r="B276" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="C276" s="52"/>
+      <c r="C276" s="50"/>
       <c r="D276" s="23">
         <v>1</v>
       </c>
@@ -6299,10 +6312,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A277" s="55"/>
-      <c r="B277" s="55"/>
-      <c r="C277" s="53"/>
+    <row r="277" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A277" s="48"/>
+      <c r="B277" s="48"/>
+      <c r="C277" s="51"/>
       <c r="D277" s="24">
         <v>2</v>
       </c>
@@ -6310,10 +6323,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A278" s="55"/>
-      <c r="B278" s="55"/>
-      <c r="C278" s="53"/>
+    <row r="278" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A278" s="48"/>
+      <c r="B278" s="48"/>
+      <c r="C278" s="51"/>
       <c r="D278" s="24">
         <v>3</v>
       </c>
@@ -6321,10 +6334,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A279" s="48"/>
-      <c r="B279" s="48"/>
-      <c r="C279" s="54"/>
+    <row r="279" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A279" s="49"/>
+      <c r="B279" s="49"/>
+      <c r="C279" s="52"/>
       <c r="D279" s="25">
         <v>4</v>
       </c>
@@ -6332,7 +6345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="41" t="s">
         <v>471</v>
       </c>
@@ -6347,7 +6360,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A281" s="42"/>
       <c r="B281" s="42"/>
       <c r="C281" s="45"/>
@@ -6358,7 +6371,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A282" s="42"/>
       <c r="B282" s="42"/>
       <c r="C282" s="45"/>
@@ -6369,7 +6382,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A283" s="43"/>
       <c r="B283" s="43"/>
       <c r="C283" s="46"/>
@@ -6380,14 +6393,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="47" t="s">
         <v>472</v>
       </c>
       <c r="B284" s="47" t="s">
         <v>531</v>
       </c>
-      <c r="C284" s="52"/>
+      <c r="C284" s="50"/>
       <c r="D284" s="23">
         <v>1</v>
       </c>
@@ -6395,10 +6408,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A285" s="55"/>
-      <c r="B285" s="55"/>
-      <c r="C285" s="53"/>
+    <row r="285" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A285" s="48"/>
+      <c r="B285" s="48"/>
+      <c r="C285" s="51"/>
       <c r="D285" s="24">
         <v>2</v>
       </c>
@@ -6406,10 +6419,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A286" s="55"/>
-      <c r="B286" s="55"/>
-      <c r="C286" s="53"/>
+    <row r="286" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A286" s="48"/>
+      <c r="B286" s="48"/>
+      <c r="C286" s="51"/>
       <c r="D286" s="24">
         <v>3</v>
       </c>
@@ -6417,10 +6430,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A287" s="48"/>
-      <c r="B287" s="48"/>
-      <c r="C287" s="54"/>
+    <row r="287" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A287" s="49"/>
+      <c r="B287" s="49"/>
+      <c r="C287" s="52"/>
       <c r="D287" s="25">
         <v>4</v>
       </c>
@@ -6428,7 +6441,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="41" t="s">
         <v>473</v>
       </c>
@@ -6443,7 +6456,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A289" s="42"/>
       <c r="B289" s="42"/>
       <c r="C289" s="45"/>
@@ -6454,7 +6467,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A290" s="42"/>
       <c r="B290" s="42"/>
       <c r="C290" s="45"/>
@@ -6465,7 +6478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A291" s="42"/>
       <c r="B291" s="42"/>
       <c r="C291" s="45"/>
@@ -6476,7 +6489,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A292" s="42"/>
       <c r="B292" s="42"/>
       <c r="C292" s="45"/>
@@ -6487,7 +6500,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A293" s="43"/>
       <c r="B293" s="43"/>
       <c r="C293" s="46"/>
@@ -6498,14 +6511,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="47" t="s">
         <v>474</v>
       </c>
       <c r="B294" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="C294" s="52"/>
+      <c r="C294" s="50"/>
       <c r="D294" s="23">
         <v>1</v>
       </c>
@@ -6513,10 +6526,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A295" s="55"/>
-      <c r="B295" s="55"/>
-      <c r="C295" s="53"/>
+    <row r="295" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A295" s="48"/>
+      <c r="B295" s="48"/>
+      <c r="C295" s="51"/>
       <c r="D295" s="24">
         <v>2</v>
       </c>
@@ -6524,10 +6537,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A296" s="55"/>
-      <c r="B296" s="55"/>
-      <c r="C296" s="53"/>
+    <row r="296" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A296" s="48"/>
+      <c r="B296" s="48"/>
+      <c r="C296" s="51"/>
       <c r="D296" s="24">
         <v>3</v>
       </c>
@@ -6535,10 +6548,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A297" s="55"/>
-      <c r="B297" s="55"/>
-      <c r="C297" s="53"/>
+    <row r="297" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A297" s="48"/>
+      <c r="B297" s="48"/>
+      <c r="C297" s="51"/>
       <c r="D297" s="24">
         <v>4</v>
       </c>
@@ -6546,10 +6559,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A298" s="55"/>
-      <c r="B298" s="55"/>
-      <c r="C298" s="53"/>
+    <row r="298" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A298" s="48"/>
+      <c r="B298" s="48"/>
+      <c r="C298" s="51"/>
       <c r="D298" s="24">
         <v>5</v>
       </c>
@@ -6557,10 +6570,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A299" s="48"/>
-      <c r="B299" s="48"/>
-      <c r="C299" s="54"/>
+    <row r="299" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A299" s="49"/>
+      <c r="B299" s="49"/>
+      <c r="C299" s="52"/>
       <c r="D299" s="25">
         <v>6</v>
       </c>
@@ -6568,7 +6581,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="41" t="s">
         <v>475</v>
       </c>
@@ -6583,7 +6596,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A301" s="42"/>
       <c r="B301" s="42"/>
       <c r="C301" s="45"/>
@@ -6594,7 +6607,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A302" s="42"/>
       <c r="B302" s="42"/>
       <c r="C302" s="45"/>
@@ -6605,7 +6618,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A303" s="42"/>
       <c r="B303" s="42"/>
       <c r="C303" s="45"/>
@@ -6616,7 +6629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A304" s="43"/>
       <c r="B304" s="43"/>
       <c r="C304" s="46"/>
@@ -6627,14 +6640,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305" s="47" t="s">
         <v>476</v>
       </c>
       <c r="B305" s="47" t="s">
         <v>534</v>
       </c>
-      <c r="C305" s="52"/>
+      <c r="C305" s="50"/>
       <c r="D305" s="23">
         <v>1</v>
       </c>
@@ -6642,10 +6655,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A306" s="55"/>
-      <c r="B306" s="55"/>
-      <c r="C306" s="53"/>
+    <row r="306" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A306" s="48"/>
+      <c r="B306" s="48"/>
+      <c r="C306" s="51"/>
       <c r="D306" s="24">
         <v>2</v>
       </c>
@@ -6653,10 +6666,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A307" s="48"/>
-      <c r="B307" s="48"/>
-      <c r="C307" s="54"/>
+    <row r="307" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A307" s="49"/>
+      <c r="B307" s="49"/>
+      <c r="C307" s="52"/>
       <c r="D307" s="25">
         <v>3</v>
       </c>
@@ -6664,7 +6677,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="41" t="s">
         <v>477</v>
       </c>
@@ -6679,7 +6692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A309" s="42"/>
       <c r="B309" s="42"/>
       <c r="C309" s="45"/>
@@ -6690,7 +6703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A310" s="42"/>
       <c r="B310" s="42"/>
       <c r="C310" s="45"/>
@@ -6701,7 +6714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A311" s="42"/>
       <c r="B311" s="42"/>
       <c r="C311" s="45"/>
@@ -6712,7 +6725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A312" s="42"/>
       <c r="B312" s="42"/>
       <c r="C312" s="45"/>
@@ -6723,7 +6736,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A313" s="42"/>
       <c r="B313" s="42"/>
       <c r="C313" s="45"/>
@@ -6734,7 +6747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A314" s="42"/>
       <c r="B314" s="42"/>
       <c r="C314" s="45"/>
@@ -6745,7 +6758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A315" s="42"/>
       <c r="B315" s="42"/>
       <c r="C315" s="45"/>
@@ -6756,7 +6769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A316" s="42"/>
       <c r="B316" s="42"/>
       <c r="C316" s="45"/>
@@ -6767,7 +6780,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A317" s="43"/>
       <c r="B317" s="43"/>
       <c r="C317" s="46"/>
@@ -6778,14 +6791,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="47" t="s">
         <v>478</v>
       </c>
       <c r="B318" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C318" s="52"/>
+      <c r="C318" s="50"/>
       <c r="D318" s="23">
         <v>1</v>
       </c>
@@ -6793,10 +6806,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A319" s="55"/>
-      <c r="B319" s="55"/>
-      <c r="C319" s="53"/>
+    <row r="319" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A319" s="48"/>
+      <c r="B319" s="48"/>
+      <c r="C319" s="51"/>
       <c r="D319" s="24">
         <v>2</v>
       </c>
@@ -6804,10 +6817,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A320" s="55"/>
-      <c r="B320" s="55"/>
-      <c r="C320" s="53"/>
+    <row r="320" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A320" s="48"/>
+      <c r="B320" s="48"/>
+      <c r="C320" s="51"/>
       <c r="D320" s="24">
         <v>3</v>
       </c>
@@ -6815,10 +6828,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A321" s="55"/>
-      <c r="B321" s="55"/>
-      <c r="C321" s="53"/>
+    <row r="321" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A321" s="48"/>
+      <c r="B321" s="48"/>
+      <c r="C321" s="51"/>
       <c r="D321" s="24">
         <v>4</v>
       </c>
@@ -6826,10 +6839,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A322" s="55"/>
-      <c r="B322" s="55"/>
-      <c r="C322" s="53"/>
+    <row r="322" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A322" s="48"/>
+      <c r="B322" s="48"/>
+      <c r="C322" s="51"/>
       <c r="D322" s="24">
         <v>5</v>
       </c>
@@ -6837,10 +6850,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A323" s="55"/>
-      <c r="B323" s="55"/>
-      <c r="C323" s="53"/>
+    <row r="323" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A323" s="48"/>
+      <c r="B323" s="48"/>
+      <c r="C323" s="51"/>
       <c r="D323" s="24">
         <v>6</v>
       </c>
@@ -6848,10 +6861,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A324" s="55"/>
-      <c r="B324" s="55"/>
-      <c r="C324" s="53"/>
+    <row r="324" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A324" s="48"/>
+      <c r="B324" s="48"/>
+      <c r="C324" s="51"/>
       <c r="D324" s="24">
         <v>7</v>
       </c>
@@ -6859,10 +6872,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A325" s="55"/>
-      <c r="B325" s="55"/>
-      <c r="C325" s="53"/>
+    <row r="325" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A325" s="48"/>
+      <c r="B325" s="48"/>
+      <c r="C325" s="51"/>
       <c r="D325" s="24">
         <v>8</v>
       </c>
@@ -6870,10 +6883,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A326" s="55"/>
-      <c r="B326" s="55"/>
-      <c r="C326" s="53"/>
+    <row r="326" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A326" s="48"/>
+      <c r="B326" s="48"/>
+      <c r="C326" s="51"/>
       <c r="D326" s="24">
         <v>9</v>
       </c>
@@ -6881,10 +6894,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A327" s="48"/>
-      <c r="B327" s="48"/>
-      <c r="C327" s="54"/>
+    <row r="327" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A327" s="49"/>
+      <c r="B327" s="49"/>
+      <c r="C327" s="52"/>
       <c r="D327" s="25">
         <v>10</v>
       </c>
@@ -6892,7 +6905,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328" s="41" t="s">
         <v>479</v>
       </c>
@@ -6907,7 +6920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A329" s="42"/>
       <c r="B329" s="42"/>
       <c r="C329" s="45"/>
@@ -6918,7 +6931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A330" s="42"/>
       <c r="B330" s="42"/>
       <c r="C330" s="45"/>
@@ -6929,7 +6942,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A331" s="42"/>
       <c r="B331" s="42"/>
       <c r="C331" s="45"/>
@@ -6940,7 +6953,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A332" s="42"/>
       <c r="B332" s="42"/>
       <c r="C332" s="45"/>
@@ -6951,7 +6964,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A333" s="42"/>
       <c r="B333" s="42"/>
       <c r="C333" s="45"/>
@@ -6962,7 +6975,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A334" s="42"/>
       <c r="B334" s="42"/>
       <c r="C334" s="45"/>
@@ -6973,7 +6986,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A335" s="42"/>
       <c r="B335" s="42"/>
       <c r="C335" s="45"/>
@@ -6984,7 +6997,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A336" s="42"/>
       <c r="B336" s="42"/>
       <c r="C336" s="45"/>
@@ -6995,7 +7008,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A337" s="42"/>
       <c r="B337" s="42"/>
       <c r="C337" s="45"/>
@@ -7006,7 +7019,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A338" s="42"/>
       <c r="B338" s="42"/>
       <c r="C338" s="45"/>
@@ -7017,7 +7030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A339" s="42"/>
       <c r="B339" s="42"/>
       <c r="C339" s="45"/>
@@ -7028,7 +7041,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A340" s="43"/>
       <c r="B340" s="43"/>
       <c r="C340" s="46"/>
@@ -7039,14 +7052,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341" s="47" t="s">
         <v>480</v>
       </c>
       <c r="B341" s="47" t="s">
         <v>535</v>
       </c>
-      <c r="C341" s="52"/>
+      <c r="C341" s="50"/>
       <c r="D341" s="23">
         <v>1</v>
       </c>
@@ -7054,10 +7067,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A342" s="55"/>
-      <c r="B342" s="55"/>
-      <c r="C342" s="53"/>
+    <row r="342" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A342" s="48"/>
+      <c r="B342" s="48"/>
+      <c r="C342" s="51"/>
       <c r="D342" s="24">
         <v>2</v>
       </c>
@@ -7065,10 +7078,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A343" s="55"/>
-      <c r="B343" s="55"/>
-      <c r="C343" s="53"/>
+    <row r="343" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A343" s="48"/>
+      <c r="B343" s="48"/>
+      <c r="C343" s="51"/>
       <c r="D343" s="24">
         <v>3</v>
       </c>
@@ -7076,10 +7089,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A344" s="55"/>
-      <c r="B344" s="55"/>
-      <c r="C344" s="53"/>
+    <row r="344" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A344" s="48"/>
+      <c r="B344" s="48"/>
+      <c r="C344" s="51"/>
       <c r="D344" s="24">
         <v>4</v>
       </c>
@@ -7087,10 +7100,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A345" s="55"/>
-      <c r="B345" s="55"/>
-      <c r="C345" s="53"/>
+    <row r="345" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A345" s="48"/>
+      <c r="B345" s="48"/>
+      <c r="C345" s="51"/>
       <c r="D345" s="24">
         <v>5</v>
       </c>
@@ -7098,10 +7111,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A346" s="55"/>
-      <c r="B346" s="55"/>
-      <c r="C346" s="53"/>
+    <row r="346" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A346" s="48"/>
+      <c r="B346" s="48"/>
+      <c r="C346" s="51"/>
       <c r="D346" s="24">
         <v>6</v>
       </c>
@@ -7109,10 +7122,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A347" s="48"/>
-      <c r="B347" s="48"/>
-      <c r="C347" s="54"/>
+    <row r="347" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A347" s="49"/>
+      <c r="B347" s="49"/>
+      <c r="C347" s="52"/>
       <c r="D347" s="25">
         <v>7</v>
       </c>
@@ -7120,7 +7133,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A348" s="41" t="s">
         <v>481</v>
       </c>
@@ -7135,7 +7148,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A349" s="42"/>
       <c r="B349" s="42"/>
       <c r="C349" s="45"/>
@@ -7146,7 +7159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A350" s="42"/>
       <c r="B350" s="42"/>
       <c r="C350" s="45"/>
@@ -7157,7 +7170,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A351" s="42"/>
       <c r="B351" s="42"/>
       <c r="C351" s="45"/>
@@ -7168,7 +7181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A352" s="43"/>
       <c r="B352" s="43"/>
       <c r="C352" s="46"/>
@@ -7179,14 +7192,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A353" s="47" t="s">
         <v>482</v>
       </c>
       <c r="B353" s="47" t="s">
         <v>566</v>
       </c>
-      <c r="C353" s="52"/>
+      <c r="C353" s="50"/>
       <c r="D353" s="23">
         <v>1</v>
       </c>
@@ -7194,10 +7207,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="55"/>
-      <c r="B354" s="55"/>
-      <c r="C354" s="53"/>
+    <row r="354" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A354" s="48"/>
+      <c r="B354" s="48"/>
+      <c r="C354" s="51"/>
       <c r="D354" s="24">
         <v>2</v>
       </c>
@@ -7205,10 +7218,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A355" s="55"/>
-      <c r="B355" s="55"/>
-      <c r="C355" s="53"/>
+    <row r="355" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A355" s="48"/>
+      <c r="B355" s="48"/>
+      <c r="C355" s="51"/>
       <c r="D355" s="24">
         <v>3</v>
       </c>
@@ -7216,10 +7229,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A356" s="55"/>
-      <c r="B356" s="55"/>
-      <c r="C356" s="53"/>
+    <row r="356" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A356" s="48"/>
+      <c r="B356" s="48"/>
+      <c r="C356" s="51"/>
       <c r="D356" s="24">
         <v>4</v>
       </c>
@@ -7227,10 +7240,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A357" s="55"/>
-      <c r="B357" s="55"/>
-      <c r="C357" s="53"/>
+    <row r="357" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A357" s="48"/>
+      <c r="B357" s="48"/>
+      <c r="C357" s="51"/>
       <c r="D357" s="24">
         <v>5</v>
       </c>
@@ -7238,10 +7251,10 @@
         <v>211</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="55"/>
-      <c r="B358" s="55"/>
-      <c r="C358" s="53"/>
+    <row r="358" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A358" s="48"/>
+      <c r="B358" s="48"/>
+      <c r="C358" s="51"/>
       <c r="D358" s="24">
         <v>6</v>
       </c>
@@ -7249,10 +7262,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A359" s="55"/>
-      <c r="B359" s="55"/>
-      <c r="C359" s="53"/>
+    <row r="359" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A359" s="48"/>
+      <c r="B359" s="48"/>
+      <c r="C359" s="51"/>
       <c r="D359" s="24">
         <v>7</v>
       </c>
@@ -7260,10 +7273,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A360" s="48"/>
-      <c r="B360" s="48"/>
-      <c r="C360" s="54"/>
+    <row r="360" spans="1:5" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A360" s="49"/>
+      <c r="B360" s="49"/>
+      <c r="C360" s="52"/>
       <c r="D360" s="25">
         <v>8</v>
       </c>
@@ -7271,7 +7284,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A361" s="41" t="s">
         <v>483</v>
       </c>
@@ -7286,7 +7299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A362" s="42"/>
       <c r="B362" s="42"/>
       <c r="C362" s="45"/>
@@ -7297,7 +7310,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A363" s="42"/>
       <c r="B363" s="42"/>
       <c r="C363" s="45"/>
@@ -7308,7 +7321,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A364" s="42"/>
       <c r="B364" s="42"/>
       <c r="C364" s="45"/>
@@ -7319,7 +7332,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A365" s="42"/>
       <c r="B365" s="42"/>
       <c r="C365" s="45"/>
@@ -7330,7 +7343,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A366" s="43"/>
       <c r="B366" s="43"/>
       <c r="C366" s="46"/>
@@ -7341,14 +7354,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A367" s="47" t="s">
         <v>484</v>
       </c>
       <c r="B367" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C367" s="52"/>
+      <c r="C367" s="50"/>
       <c r="D367" s="23">
         <v>1</v>
       </c>
@@ -7356,10 +7369,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A368" s="55"/>
-      <c r="B368" s="55"/>
-      <c r="C368" s="53"/>
+    <row r="368" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A368" s="48"/>
+      <c r="B368" s="48"/>
+      <c r="C368" s="51"/>
       <c r="D368" s="24">
         <v>2</v>
       </c>
@@ -7367,10 +7380,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A369" s="55"/>
-      <c r="B369" s="55"/>
-      <c r="C369" s="53"/>
+    <row r="369" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A369" s="48"/>
+      <c r="B369" s="48"/>
+      <c r="C369" s="51"/>
       <c r="D369" s="24">
         <v>3</v>
       </c>
@@ -7378,10 +7391,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A370" s="55"/>
-      <c r="B370" s="55"/>
-      <c r="C370" s="53"/>
+    <row r="370" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A370" s="48"/>
+      <c r="B370" s="48"/>
+      <c r="C370" s="51"/>
       <c r="D370" s="24">
         <v>4</v>
       </c>
@@ -7389,10 +7402,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A371" s="55"/>
-      <c r="B371" s="55"/>
-      <c r="C371" s="53"/>
+    <row r="371" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A371" s="48"/>
+      <c r="B371" s="48"/>
+      <c r="C371" s="51"/>
       <c r="D371" s="24">
         <v>5</v>
       </c>
@@ -7400,10 +7413,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A372" s="55"/>
-      <c r="B372" s="55"/>
-      <c r="C372" s="53"/>
+    <row r="372" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A372" s="48"/>
+      <c r="B372" s="48"/>
+      <c r="C372" s="51"/>
       <c r="D372" s="24">
         <v>6</v>
       </c>
@@ -7411,10 +7424,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A373" s="55"/>
-      <c r="B373" s="55"/>
-      <c r="C373" s="53"/>
+    <row r="373" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A373" s="48"/>
+      <c r="B373" s="48"/>
+      <c r="C373" s="51"/>
       <c r="D373" s="24">
         <v>7</v>
       </c>
@@ -7422,10 +7435,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A374" s="55"/>
-      <c r="B374" s="55"/>
-      <c r="C374" s="53"/>
+    <row r="374" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A374" s="48"/>
+      <c r="B374" s="48"/>
+      <c r="C374" s="51"/>
       <c r="D374" s="24">
         <v>8</v>
       </c>
@@ -7433,10 +7446,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A375" s="55"/>
-      <c r="B375" s="55"/>
-      <c r="C375" s="53"/>
+    <row r="375" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A375" s="48"/>
+      <c r="B375" s="48"/>
+      <c r="C375" s="51"/>
       <c r="D375" s="24">
         <v>9</v>
       </c>
@@ -7444,10 +7457,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A376" s="55"/>
-      <c r="B376" s="55"/>
-      <c r="C376" s="53"/>
+    <row r="376" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A376" s="48"/>
+      <c r="B376" s="48"/>
+      <c r="C376" s="51"/>
       <c r="D376" s="24">
         <v>10</v>
       </c>
@@ -7455,10 +7468,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A377" s="55"/>
-      <c r="B377" s="55"/>
-      <c r="C377" s="53"/>
+    <row r="377" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A377" s="48"/>
+      <c r="B377" s="48"/>
+      <c r="C377" s="51"/>
       <c r="D377" s="24">
         <v>11</v>
       </c>
@@ -7466,10 +7479,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A378" s="48"/>
-      <c r="B378" s="48"/>
-      <c r="C378" s="54"/>
+    <row r="378" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A378" s="49"/>
+      <c r="B378" s="49"/>
+      <c r="C378" s="52"/>
       <c r="D378" s="25">
         <v>12</v>
       </c>
@@ -7477,7 +7490,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A379" s="41" t="s">
         <v>485</v>
       </c>
@@ -7492,7 +7505,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A380" s="42"/>
       <c r="B380" s="42"/>
       <c r="C380" s="45"/>
@@ -7503,7 +7516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A381" s="42"/>
       <c r="B381" s="42"/>
       <c r="C381" s="45"/>
@@ -7514,7 +7527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A382" s="42"/>
       <c r="B382" s="42"/>
       <c r="C382" s="45"/>
@@ -7525,7 +7538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A383" s="42"/>
       <c r="B383" s="42"/>
       <c r="C383" s="45"/>
@@ -7536,7 +7549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A384" s="42"/>
       <c r="B384" s="42"/>
       <c r="C384" s="45"/>
@@ -7547,7 +7560,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A385" s="43"/>
       <c r="B385" s="43"/>
       <c r="C385" s="46"/>
@@ -7558,14 +7571,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A386" s="47" t="s">
         <v>486</v>
       </c>
       <c r="B386" s="47" t="s">
         <v>538</v>
       </c>
-      <c r="C386" s="52"/>
+      <c r="C386" s="50"/>
       <c r="D386" s="23">
         <v>1</v>
       </c>
@@ -7573,10 +7586,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A387" s="55"/>
-      <c r="B387" s="55"/>
-      <c r="C387" s="53"/>
+    <row r="387" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A387" s="48"/>
+      <c r="B387" s="48"/>
+      <c r="C387" s="51"/>
       <c r="D387" s="24">
         <v>2</v>
       </c>
@@ -7584,10 +7597,10 @@
         <v>217</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A388" s="55"/>
-      <c r="B388" s="55"/>
-      <c r="C388" s="53"/>
+    <row r="388" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A388" s="48"/>
+      <c r="B388" s="48"/>
+      <c r="C388" s="51"/>
       <c r="D388" s="24">
         <v>3</v>
       </c>
@@ -7595,10 +7608,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A389" s="55"/>
-      <c r="B389" s="55"/>
-      <c r="C389" s="53"/>
+    <row r="389" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A389" s="48"/>
+      <c r="B389" s="48"/>
+      <c r="C389" s="51"/>
       <c r="D389" s="24">
         <v>4</v>
       </c>
@@ -7606,10 +7619,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A390" s="55"/>
-      <c r="B390" s="55"/>
-      <c r="C390" s="53"/>
+    <row r="390" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A390" s="48"/>
+      <c r="B390" s="48"/>
+      <c r="C390" s="51"/>
       <c r="D390" s="24">
         <v>5</v>
       </c>
@@ -7617,10 +7630,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A391" s="55"/>
-      <c r="B391" s="55"/>
-      <c r="C391" s="53"/>
+    <row r="391" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A391" s="48"/>
+      <c r="B391" s="48"/>
+      <c r="C391" s="51"/>
       <c r="D391" s="24">
         <v>6</v>
       </c>
@@ -7628,10 +7641,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A392" s="55"/>
-      <c r="B392" s="55"/>
-      <c r="C392" s="53"/>
+    <row r="392" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A392" s="48"/>
+      <c r="B392" s="48"/>
+      <c r="C392" s="51"/>
       <c r="D392" s="24">
         <v>7</v>
       </c>
@@ -7639,10 +7652,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A393" s="48"/>
-      <c r="B393" s="48"/>
-      <c r="C393" s="54"/>
+    <row r="393" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A393" s="49"/>
+      <c r="B393" s="49"/>
+      <c r="C393" s="52"/>
       <c r="D393" s="25">
         <v>8</v>
       </c>
@@ -7650,7 +7663,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A394" s="41" t="s">
         <v>487</v>
       </c>
@@ -7665,7 +7678,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A395" s="42"/>
       <c r="B395" s="42"/>
       <c r="C395" s="45"/>
@@ -7676,7 +7689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A396" s="43"/>
       <c r="B396" s="43"/>
       <c r="C396" s="46"/>
@@ -7687,14 +7700,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A397" s="47" t="s">
         <v>488</v>
       </c>
       <c r="B397" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="C397" s="52"/>
+      <c r="C397" s="50"/>
       <c r="D397" s="23">
         <v>1</v>
       </c>
@@ -7702,10 +7715,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A398" s="55"/>
-      <c r="B398" s="55"/>
-      <c r="C398" s="53"/>
+    <row r="398" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A398" s="48"/>
+      <c r="B398" s="48"/>
+      <c r="C398" s="51"/>
       <c r="D398" s="24">
         <v>2</v>
       </c>
@@ -7713,10 +7726,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A399" s="48"/>
-      <c r="B399" s="48"/>
-      <c r="C399" s="54"/>
+    <row r="399" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A399" s="49"/>
+      <c r="B399" s="49"/>
+      <c r="C399" s="52"/>
       <c r="D399" s="25">
         <v>3</v>
       </c>
@@ -7724,7 +7737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A400" s="41" t="s">
         <v>489</v>
       </c>
@@ -7739,7 +7752,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A401" s="42"/>
       <c r="B401" s="42"/>
       <c r="C401" s="45"/>
@@ -7750,7 +7763,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A402" s="42"/>
       <c r="B402" s="42"/>
       <c r="C402" s="45"/>
@@ -7761,7 +7774,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A403" s="42"/>
       <c r="B403" s="42"/>
       <c r="C403" s="45"/>
@@ -7772,7 +7785,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A404" s="42"/>
       <c r="B404" s="42"/>
       <c r="C404" s="45"/>
@@ -7783,7 +7796,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A405" s="42"/>
       <c r="B405" s="42"/>
       <c r="C405" s="45"/>
@@ -7794,7 +7807,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A406" s="42"/>
       <c r="B406" s="42"/>
       <c r="C406" s="45"/>
@@ -7805,7 +7818,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A407" s="42"/>
       <c r="B407" s="42"/>
       <c r="C407" s="45"/>
@@ -7816,7 +7829,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A408" s="43"/>
       <c r="B408" s="43"/>
       <c r="C408" s="46"/>
@@ -7827,14 +7840,14 @@
         <v>287</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A409" s="47" t="s">
         <v>490</v>
       </c>
       <c r="B409" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="C409" s="52"/>
+      <c r="C409" s="50"/>
       <c r="D409" s="23">
         <v>1</v>
       </c>
@@ -7842,10 +7855,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A410" s="55"/>
-      <c r="B410" s="55"/>
-      <c r="C410" s="53"/>
+    <row r="410" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A410" s="48"/>
+      <c r="B410" s="48"/>
+      <c r="C410" s="51"/>
       <c r="D410" s="24">
         <v>2</v>
       </c>
@@ -7853,10 +7866,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A411" s="48"/>
-      <c r="B411" s="48"/>
-      <c r="C411" s="54"/>
+    <row r="411" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A411" s="49"/>
+      <c r="B411" s="49"/>
+      <c r="C411" s="52"/>
       <c r="D411" s="25">
         <v>3</v>
       </c>
@@ -7864,7 +7877,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A412" s="41" t="s">
         <v>491</v>
       </c>
@@ -7879,7 +7892,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A413" s="42"/>
       <c r="B413" s="42"/>
       <c r="C413" s="45"/>
@@ -7890,7 +7903,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A414" s="42"/>
       <c r="B414" s="42"/>
       <c r="C414" s="45"/>
@@ -7901,7 +7914,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A415" s="42"/>
       <c r="B415" s="42"/>
       <c r="C415" s="45"/>
@@ -7912,7 +7925,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A416" s="43"/>
       <c r="B416" s="43"/>
       <c r="C416" s="46"/>
@@ -7923,14 +7936,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A417" s="47" t="s">
         <v>492</v>
       </c>
       <c r="B417" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="C417" s="52"/>
+      <c r="C417" s="50"/>
       <c r="D417" s="23">
         <v>1</v>
       </c>
@@ -7938,10 +7951,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A418" s="55"/>
-      <c r="B418" s="55"/>
-      <c r="C418" s="53"/>
+    <row r="418" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A418" s="48"/>
+      <c r="B418" s="48"/>
+      <c r="C418" s="51"/>
       <c r="D418" s="24">
         <v>2</v>
       </c>
@@ -7949,10 +7962,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A419" s="48"/>
-      <c r="B419" s="48"/>
-      <c r="C419" s="54"/>
+    <row r="419" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A419" s="49"/>
+      <c r="B419" s="49"/>
+      <c r="C419" s="52"/>
       <c r="D419" s="25">
         <v>3</v>
       </c>
@@ -7960,7 +7973,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A420" s="41" t="s">
         <v>493</v>
       </c>
@@ -7975,7 +7988,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A421" s="42"/>
       <c r="B421" s="42"/>
       <c r="C421" s="45"/>
@@ -7986,7 +7999,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A422" s="42"/>
       <c r="B422" s="42"/>
       <c r="C422" s="45"/>
@@ -7997,7 +8010,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A423" s="42"/>
       <c r="B423" s="42"/>
       <c r="C423" s="45"/>
@@ -8008,7 +8021,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A424" s="42"/>
       <c r="B424" s="42"/>
       <c r="C424" s="45"/>
@@ -8019,7 +8032,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A425" s="42"/>
       <c r="B425" s="42"/>
       <c r="C425" s="45"/>
@@ -8030,7 +8043,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A426" s="42"/>
       <c r="B426" s="42"/>
       <c r="C426" s="45"/>
@@ -8041,7 +8054,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A427" s="42"/>
       <c r="B427" s="42"/>
       <c r="C427" s="45"/>
@@ -8052,7 +8065,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A428" s="42"/>
       <c r="B428" s="42"/>
       <c r="C428" s="45"/>
@@ -8063,7 +8076,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A429" s="42"/>
       <c r="B429" s="42"/>
       <c r="C429" s="45"/>
@@ -8074,7 +8087,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A430" s="42"/>
       <c r="B430" s="42"/>
       <c r="C430" s="45"/>
@@ -8085,7 +8098,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A431" s="43"/>
       <c r="B431" s="43"/>
       <c r="C431" s="46"/>
@@ -8096,14 +8109,14 @@
         <v>299</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A432" s="47" t="s">
         <v>494</v>
       </c>
       <c r="B432" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="C432" s="52"/>
+      <c r="C432" s="50"/>
       <c r="D432" s="23">
         <v>1</v>
       </c>
@@ -8111,10 +8124,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A433" s="55"/>
-      <c r="B433" s="55"/>
-      <c r="C433" s="53"/>
+    <row r="433" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A433" s="48"/>
+      <c r="B433" s="48"/>
+      <c r="C433" s="51"/>
       <c r="D433" s="24">
         <v>2</v>
       </c>
@@ -8122,10 +8135,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A434" s="48"/>
-      <c r="B434" s="48"/>
-      <c r="C434" s="54"/>
+    <row r="434" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A434" s="49"/>
+      <c r="B434" s="49"/>
+      <c r="C434" s="52"/>
       <c r="D434" s="25">
         <v>3</v>
       </c>
@@ -8133,7 +8146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A435" s="41" t="s">
         <v>495</v>
       </c>
@@ -8148,7 +8161,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A436" s="42"/>
       <c r="B436" s="42"/>
       <c r="C436" s="45"/>
@@ -8159,7 +8172,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A437" s="42"/>
       <c r="B437" s="42"/>
       <c r="C437" s="45"/>
@@ -8170,7 +8183,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A438" s="42"/>
       <c r="B438" s="42"/>
       <c r="C438" s="45"/>
@@ -8181,7 +8194,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A439" s="43"/>
       <c r="B439" s="43"/>
       <c r="C439" s="46"/>
@@ -8192,14 +8205,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A440" s="47" t="s">
         <v>496</v>
       </c>
       <c r="B440" s="47" t="s">
         <v>545</v>
       </c>
-      <c r="C440" s="52"/>
+      <c r="C440" s="50"/>
       <c r="D440" s="23">
         <v>1</v>
       </c>
@@ -8207,10 +8220,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A441" s="55"/>
-      <c r="B441" s="55"/>
-      <c r="C441" s="53"/>
+    <row r="441" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A441" s="48"/>
+      <c r="B441" s="48"/>
+      <c r="C441" s="51"/>
       <c r="D441" s="24">
         <v>2</v>
       </c>
@@ -8218,10 +8231,10 @@
         <v>232</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A442" s="55"/>
-      <c r="B442" s="55"/>
-      <c r="C442" s="53"/>
+    <row r="442" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A442" s="48"/>
+      <c r="B442" s="48"/>
+      <c r="C442" s="51"/>
       <c r="D442" s="24">
         <v>3</v>
       </c>
@@ -8229,10 +8242,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A443" s="55"/>
-      <c r="B443" s="55"/>
-      <c r="C443" s="53"/>
+    <row r="443" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A443" s="48"/>
+      <c r="B443" s="48"/>
+      <c r="C443" s="51"/>
       <c r="D443" s="24">
         <v>4</v>
       </c>
@@ -8240,10 +8253,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A444" s="55"/>
-      <c r="B444" s="55"/>
-      <c r="C444" s="53"/>
+    <row r="444" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A444" s="48"/>
+      <c r="B444" s="48"/>
+      <c r="C444" s="51"/>
       <c r="D444" s="24">
         <v>5</v>
       </c>
@@ -8251,10 +8264,10 @@
         <v>235</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A445" s="55"/>
-      <c r="B445" s="55"/>
-      <c r="C445" s="53"/>
+    <row r="445" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A445" s="48"/>
+      <c r="B445" s="48"/>
+      <c r="C445" s="51"/>
       <c r="D445" s="24">
         <v>6</v>
       </c>
@@ -8262,10 +8275,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A446" s="55"/>
-      <c r="B446" s="55"/>
-      <c r="C446" s="53"/>
+    <row r="446" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A446" s="48"/>
+      <c r="B446" s="48"/>
+      <c r="C446" s="51"/>
       <c r="D446" s="24">
         <v>7</v>
       </c>
@@ -8273,10 +8286,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A447" s="48"/>
-      <c r="B447" s="48"/>
-      <c r="C447" s="54"/>
+    <row r="447" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A447" s="49"/>
+      <c r="B447" s="49"/>
+      <c r="C447" s="52"/>
       <c r="D447" s="25">
         <v>8</v>
       </c>
@@ -8284,7 +8297,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A448" s="41" t="s">
         <v>497</v>
       </c>
@@ -8299,7 +8312,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A449" s="42"/>
       <c r="B449" s="42"/>
       <c r="C449" s="45"/>
@@ -8310,7 +8323,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A450" s="42"/>
       <c r="B450" s="42"/>
       <c r="C450" s="45"/>
@@ -8321,7 +8334,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A451" s="42"/>
       <c r="B451" s="42"/>
       <c r="C451" s="45"/>
@@ -8332,7 +8345,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A452" s="42"/>
       <c r="B452" s="42"/>
       <c r="C452" s="45"/>
@@ -8343,7 +8356,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A453" s="43"/>
       <c r="B453" s="43"/>
       <c r="C453" s="46"/>
@@ -8354,14 +8367,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A454" s="47" t="s">
         <v>498</v>
       </c>
       <c r="B454" s="47" t="s">
         <v>547</v>
       </c>
-      <c r="C454" s="52"/>
+      <c r="C454" s="50"/>
       <c r="D454" s="23">
         <v>1</v>
       </c>
@@ -8369,10 +8382,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A455" s="55"/>
-      <c r="B455" s="55"/>
-      <c r="C455" s="53"/>
+    <row r="455" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A455" s="48"/>
+      <c r="B455" s="48"/>
+      <c r="C455" s="51"/>
       <c r="D455" s="24">
         <v>2</v>
       </c>
@@ -8380,10 +8393,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A456" s="55"/>
-      <c r="B456" s="55"/>
-      <c r="C456" s="53"/>
+    <row r="456" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A456" s="48"/>
+      <c r="B456" s="48"/>
+      <c r="C456" s="51"/>
       <c r="D456" s="24">
         <v>3</v>
       </c>
@@ -8391,10 +8404,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A457" s="55"/>
-      <c r="B457" s="55"/>
-      <c r="C457" s="53"/>
+    <row r="457" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A457" s="48"/>
+      <c r="B457" s="48"/>
+      <c r="C457" s="51"/>
       <c r="D457" s="24">
         <v>4</v>
       </c>
@@ -8402,10 +8415,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A458" s="55"/>
-      <c r="B458" s="55"/>
-      <c r="C458" s="53"/>
+    <row r="458" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A458" s="48"/>
+      <c r="B458" s="48"/>
+      <c r="C458" s="51"/>
       <c r="D458" s="24">
         <v>5</v>
       </c>
@@ -8413,10 +8426,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A459" s="55"/>
-      <c r="B459" s="55"/>
-      <c r="C459" s="53"/>
+    <row r="459" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A459" s="48"/>
+      <c r="B459" s="48"/>
+      <c r="C459" s="51"/>
       <c r="D459" s="24">
         <v>6</v>
       </c>
@@ -8424,10 +8437,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A460" s="55"/>
-      <c r="B460" s="55"/>
-      <c r="C460" s="53"/>
+    <row r="460" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A460" s="48"/>
+      <c r="B460" s="48"/>
+      <c r="C460" s="51"/>
       <c r="D460" s="24">
         <v>7</v>
       </c>
@@ -8435,10 +8448,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A461" s="55"/>
-      <c r="B461" s="55"/>
-      <c r="C461" s="53"/>
+    <row r="461" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A461" s="48"/>
+      <c r="B461" s="48"/>
+      <c r="C461" s="51"/>
       <c r="D461" s="24">
         <v>8</v>
       </c>
@@ -8446,10 +8459,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A462" s="48"/>
-      <c r="B462" s="48"/>
-      <c r="C462" s="54"/>
+    <row r="462" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A462" s="49"/>
+      <c r="B462" s="49"/>
+      <c r="C462" s="52"/>
       <c r="D462" s="25">
         <v>9</v>
       </c>
@@ -8457,7 +8470,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A463" s="42" t="s">
         <v>499</v>
       </c>
@@ -8472,7 +8485,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A464" s="42"/>
       <c r="B464" s="42"/>
       <c r="C464" s="45"/>
@@ -8483,7 +8496,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A465" s="43"/>
       <c r="B465" s="43"/>
       <c r="C465" s="46"/>
@@ -8494,14 +8507,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A466" s="47" t="s">
         <v>500</v>
       </c>
       <c r="B466" s="47" t="s">
         <v>549</v>
       </c>
-      <c r="C466" s="52"/>
+      <c r="C466" s="50"/>
       <c r="D466" s="23">
         <v>1</v>
       </c>
@@ -8509,10 +8522,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A467" s="55"/>
-      <c r="B467" s="55"/>
-      <c r="C467" s="53"/>
+    <row r="467" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A467" s="48"/>
+      <c r="B467" s="48"/>
+      <c r="C467" s="51"/>
       <c r="D467" s="24">
         <v>2</v>
       </c>
@@ -8520,10 +8533,10 @@
         <v>256</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A468" s="48"/>
-      <c r="B468" s="48"/>
-      <c r="C468" s="54"/>
+    <row r="468" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A468" s="49"/>
+      <c r="B468" s="49"/>
+      <c r="C468" s="52"/>
       <c r="D468" s="25">
         <v>3</v>
       </c>
@@ -8531,7 +8544,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A469" s="41" t="s">
         <v>501</v>
       </c>
@@ -8546,7 +8559,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A470" s="42"/>
       <c r="B470" s="42"/>
       <c r="C470" s="45"/>
@@ -8557,7 +8570,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A471" s="42"/>
       <c r="B471" s="42"/>
       <c r="C471" s="45"/>
@@ -8568,7 +8581,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A472" s="43"/>
       <c r="B472" s="43"/>
       <c r="C472" s="46"/>
@@ -8579,14 +8592,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A473" s="47" t="s">
         <v>502</v>
       </c>
       <c r="B473" s="47" t="s">
         <v>562</v>
       </c>
-      <c r="C473" s="52"/>
+      <c r="C473" s="50"/>
       <c r="D473" s="23">
         <v>1</v>
       </c>
@@ -8594,10 +8607,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A474" s="55"/>
-      <c r="B474" s="55"/>
-      <c r="C474" s="53"/>
+    <row r="474" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A474" s="48"/>
+      <c r="B474" s="48"/>
+      <c r="C474" s="51"/>
       <c r="D474" s="24">
         <v>2</v>
       </c>
@@ -8605,10 +8618,10 @@
         <v>301</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A475" s="55"/>
-      <c r="B475" s="55"/>
-      <c r="C475" s="53"/>
+    <row r="475" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A475" s="48"/>
+      <c r="B475" s="48"/>
+      <c r="C475" s="51"/>
       <c r="D475" s="24">
         <v>3</v>
       </c>
@@ -8616,10 +8629,10 @@
         <v>302</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A476" s="55"/>
-      <c r="B476" s="55"/>
-      <c r="C476" s="53"/>
+    <row r="476" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A476" s="48"/>
+      <c r="B476" s="48"/>
+      <c r="C476" s="51"/>
       <c r="D476" s="24">
         <v>4</v>
       </c>
@@ -8627,10 +8640,10 @@
         <v>303</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A477" s="55"/>
-      <c r="B477" s="55"/>
-      <c r="C477" s="53"/>
+    <row r="477" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A477" s="48"/>
+      <c r="B477" s="48"/>
+      <c r="C477" s="51"/>
       <c r="D477" s="24">
         <v>5</v>
       </c>
@@ -8638,10 +8651,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A478" s="55"/>
-      <c r="B478" s="55"/>
-      <c r="C478" s="53"/>
+    <row r="478" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A478" s="48"/>
+      <c r="B478" s="48"/>
+      <c r="C478" s="51"/>
       <c r="D478" s="24">
         <v>6</v>
       </c>
@@ -8649,10 +8662,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A479" s="55"/>
-      <c r="B479" s="55"/>
-      <c r="C479" s="53"/>
+    <row r="479" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A479" s="48"/>
+      <c r="B479" s="48"/>
+      <c r="C479" s="51"/>
       <c r="D479" s="24">
         <v>7</v>
       </c>
@@ -8660,10 +8673,10 @@
         <v>305</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A480" s="55"/>
-      <c r="B480" s="55"/>
-      <c r="C480" s="53"/>
+    <row r="480" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A480" s="48"/>
+      <c r="B480" s="48"/>
+      <c r="C480" s="51"/>
       <c r="D480" s="24">
         <v>8</v>
       </c>
@@ -8671,10 +8684,10 @@
         <v>306</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A481" s="55"/>
-      <c r="B481" s="55"/>
-      <c r="C481" s="53"/>
+    <row r="481" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A481" s="48"/>
+      <c r="B481" s="48"/>
+      <c r="C481" s="51"/>
       <c r="D481" s="24">
         <v>9</v>
       </c>
@@ -8682,10 +8695,10 @@
         <v>307</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A482" s="55"/>
-      <c r="B482" s="55"/>
-      <c r="C482" s="53"/>
+    <row r="482" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A482" s="48"/>
+      <c r="B482" s="48"/>
+      <c r="C482" s="51"/>
       <c r="D482" s="24">
         <v>10</v>
       </c>
@@ -8693,10 +8706,10 @@
         <v>308</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A483" s="48"/>
-      <c r="B483" s="48"/>
-      <c r="C483" s="54"/>
+    <row r="483" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A483" s="49"/>
+      <c r="B483" s="49"/>
+      <c r="C483" s="52"/>
       <c r="D483" s="25">
         <v>98</v>
       </c>
@@ -8704,7 +8717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A484" s="41" t="s">
         <v>503</v>
       </c>
@@ -8719,7 +8732,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A485" s="42"/>
       <c r="B485" s="42"/>
       <c r="C485" s="45"/>
@@ -8730,7 +8743,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A486" s="42"/>
       <c r="B486" s="42"/>
       <c r="C486" s="45"/>
@@ -8741,7 +8754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A487" s="42"/>
       <c r="B487" s="42"/>
       <c r="C487" s="45"/>
@@ -8752,7 +8765,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A488" s="43"/>
       <c r="B488" s="43"/>
       <c r="C488" s="46"/>
@@ -8763,14 +8776,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A489" s="47" t="s">
         <v>504</v>
       </c>
       <c r="B489" s="47" t="s">
         <v>561</v>
       </c>
-      <c r="C489" s="52"/>
+      <c r="C489" s="50"/>
       <c r="D489" s="23">
         <v>1</v>
       </c>
@@ -8778,10 +8791,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A490" s="55"/>
-      <c r="B490" s="55"/>
-      <c r="C490" s="53"/>
+    <row r="490" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A490" s="48"/>
+      <c r="B490" s="48"/>
+      <c r="C490" s="51"/>
       <c r="D490" s="24">
         <v>2</v>
       </c>
@@ -8789,10 +8802,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A491" s="55"/>
-      <c r="B491" s="55"/>
-      <c r="C491" s="53"/>
+    <row r="491" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A491" s="48"/>
+      <c r="B491" s="48"/>
+      <c r="C491" s="51"/>
       <c r="D491" s="24">
         <v>3</v>
       </c>
@@ -8800,10 +8813,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A492" s="48"/>
-      <c r="B492" s="48"/>
-      <c r="C492" s="54"/>
+    <row r="492" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A492" s="49"/>
+      <c r="B492" s="49"/>
+      <c r="C492" s="52"/>
       <c r="D492" s="25">
         <v>4</v>
       </c>
@@ -8811,7 +8824,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A493" s="41" t="s">
         <v>505</v>
       </c>
@@ -8826,7 +8839,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A494" s="42"/>
       <c r="B494" s="42"/>
       <c r="C494" s="45"/>
@@ -8837,7 +8850,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A495" s="42"/>
       <c r="B495" s="42"/>
       <c r="C495" s="45"/>
@@ -8848,7 +8861,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A496" s="42"/>
       <c r="B496" s="42"/>
       <c r="C496" s="45"/>
@@ -8859,7 +8872,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A497" s="42"/>
       <c r="B497" s="42"/>
       <c r="C497" s="45"/>
@@ -8870,7 +8883,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A498" s="42"/>
       <c r="B498" s="42"/>
       <c r="C498" s="45"/>
@@ -8881,7 +8894,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A499" s="42"/>
       <c r="B499" s="42"/>
       <c r="C499" s="45"/>
@@ -8892,7 +8905,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A500" s="42"/>
       <c r="B500" s="42"/>
       <c r="C500" s="45"/>
@@ -8903,7 +8916,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A501" s="43"/>
       <c r="B501" s="43"/>
       <c r="C501" s="46"/>
@@ -8914,14 +8927,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A502" s="47" t="s">
         <v>506</v>
       </c>
       <c r="B502" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C502" s="52"/>
+      <c r="C502" s="50"/>
       <c r="D502" s="23">
         <v>1</v>
       </c>
@@ -8929,10 +8942,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A503" s="55"/>
-      <c r="B503" s="55"/>
-      <c r="C503" s="53"/>
+    <row r="503" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A503" s="48"/>
+      <c r="B503" s="48"/>
+      <c r="C503" s="51"/>
       <c r="D503" s="24">
         <v>2</v>
       </c>
@@ -8940,10 +8953,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A504" s="55"/>
-      <c r="B504" s="55"/>
-      <c r="C504" s="53"/>
+    <row r="504" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A504" s="48"/>
+      <c r="B504" s="48"/>
+      <c r="C504" s="51"/>
       <c r="D504" s="24">
         <v>3</v>
       </c>
@@ -8951,10 +8964,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A505" s="55"/>
-      <c r="B505" s="55"/>
-      <c r="C505" s="53"/>
+    <row r="505" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A505" s="48"/>
+      <c r="B505" s="48"/>
+      <c r="C505" s="51"/>
       <c r="D505" s="24">
         <v>4</v>
       </c>
@@ -8962,10 +8975,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A506" s="55"/>
-      <c r="B506" s="55"/>
-      <c r="C506" s="53"/>
+    <row r="506" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A506" s="48"/>
+      <c r="B506" s="48"/>
+      <c r="C506" s="51"/>
       <c r="D506" s="24">
         <v>5</v>
       </c>
@@ -8973,10 +8986,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A507" s="55"/>
-      <c r="B507" s="55"/>
-      <c r="C507" s="53"/>
+    <row r="507" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A507" s="48"/>
+      <c r="B507" s="48"/>
+      <c r="C507" s="51"/>
       <c r="D507" s="24">
         <v>6</v>
       </c>
@@ -8984,10 +8997,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A508" s="55"/>
-      <c r="B508" s="55"/>
-      <c r="C508" s="53"/>
+    <row r="508" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A508" s="48"/>
+      <c r="B508" s="48"/>
+      <c r="C508" s="51"/>
       <c r="D508" s="24">
         <v>7</v>
       </c>
@@ -8995,10 +9008,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A509" s="55"/>
-      <c r="B509" s="55"/>
-      <c r="C509" s="53"/>
+    <row r="509" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A509" s="48"/>
+      <c r="B509" s="48"/>
+      <c r="C509" s="51"/>
       <c r="D509" s="24">
         <v>8</v>
       </c>
@@ -9006,10 +9019,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A510" s="48"/>
-      <c r="B510" s="48"/>
-      <c r="C510" s="54"/>
+    <row r="510" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A510" s="49"/>
+      <c r="B510" s="49"/>
+      <c r="C510" s="52"/>
       <c r="D510" s="25">
         <v>9</v>
       </c>
@@ -9017,7 +9030,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A511" s="41" t="s">
         <v>507</v>
       </c>
@@ -9032,7 +9045,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A512" s="42"/>
       <c r="B512" s="42"/>
       <c r="C512" s="45"/>
@@ -9043,7 +9056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A513" s="42"/>
       <c r="B513" s="42"/>
       <c r="C513" s="45"/>
@@ -9054,7 +9067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A514" s="43"/>
       <c r="B514" s="43"/>
       <c r="C514" s="46"/>
@@ -9065,14 +9078,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A515" s="47" t="s">
         <v>508</v>
       </c>
       <c r="B515" s="47" t="s">
         <v>553</v>
       </c>
-      <c r="C515" s="52"/>
+      <c r="C515" s="50"/>
       <c r="D515" s="23">
         <v>1</v>
       </c>
@@ -9080,10 +9093,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A516" s="55"/>
-      <c r="B516" s="55"/>
-      <c r="C516" s="53"/>
+    <row r="516" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A516" s="48"/>
+      <c r="B516" s="48"/>
+      <c r="C516" s="51"/>
       <c r="D516" s="24">
         <v>2</v>
       </c>
@@ -9091,10 +9104,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A517" s="48"/>
-      <c r="B517" s="48"/>
-      <c r="C517" s="54"/>
+    <row r="517" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A517" s="49"/>
+      <c r="B517" s="49"/>
+      <c r="C517" s="52"/>
       <c r="D517" s="25">
         <v>3</v>
       </c>
@@ -9102,7 +9115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A518" s="41" t="s">
         <v>509</v>
       </c>
@@ -9117,7 +9130,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A519" s="42"/>
       <c r="B519" s="42"/>
       <c r="C519" s="45"/>
@@ -9128,7 +9141,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A520" s="42"/>
       <c r="B520" s="42"/>
       <c r="C520" s="45"/>
@@ -9139,7 +9152,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A521" s="42"/>
       <c r="B521" s="42"/>
       <c r="C521" s="45"/>
@@ -9150,7 +9163,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A522" s="42"/>
       <c r="B522" s="42"/>
       <c r="C522" s="45"/>
@@ -9161,7 +9174,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A523" s="42"/>
       <c r="B523" s="42"/>
       <c r="C523" s="45"/>
@@ -9172,7 +9185,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A524" s="43"/>
       <c r="B524" s="43"/>
       <c r="C524" s="46"/>
@@ -9183,14 +9196,14 @@
         <v>268</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A525" s="47" t="s">
         <v>510</v>
       </c>
       <c r="B525" s="47" t="s">
         <v>555</v>
       </c>
-      <c r="C525" s="52"/>
+      <c r="C525" s="50"/>
       <c r="D525" s="23">
         <v>1</v>
       </c>
@@ -9198,10 +9211,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A526" s="55"/>
-      <c r="B526" s="55"/>
-      <c r="C526" s="53"/>
+    <row r="526" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A526" s="48"/>
+      <c r="B526" s="48"/>
+      <c r="C526" s="51"/>
       <c r="D526" s="24">
         <v>2</v>
       </c>
@@ -9209,10 +9222,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A527" s="55"/>
-      <c r="B527" s="55"/>
-      <c r="C527" s="53"/>
+    <row r="527" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A527" s="48"/>
+      <c r="B527" s="48"/>
+      <c r="C527" s="51"/>
       <c r="D527" s="24">
         <v>3</v>
       </c>
@@ -9220,10 +9233,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A528" s="55"/>
-      <c r="B528" s="55"/>
-      <c r="C528" s="53"/>
+    <row r="528" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A528" s="48"/>
+      <c r="B528" s="48"/>
+      <c r="C528" s="51"/>
       <c r="D528" s="24">
         <v>4</v>
       </c>
@@ -9231,10 +9244,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A529" s="55"/>
-      <c r="B529" s="55"/>
-      <c r="C529" s="53"/>
+    <row r="529" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A529" s="48"/>
+      <c r="B529" s="48"/>
+      <c r="C529" s="51"/>
       <c r="D529" s="24">
         <v>5</v>
       </c>
@@ -9242,10 +9255,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A530" s="55"/>
-      <c r="B530" s="55"/>
-      <c r="C530" s="53"/>
+    <row r="530" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A530" s="48"/>
+      <c r="B530" s="48"/>
+      <c r="C530" s="51"/>
       <c r="D530" s="24">
         <v>6</v>
       </c>
@@ -9253,10 +9266,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A531" s="55"/>
-      <c r="B531" s="55"/>
-      <c r="C531" s="53"/>
+    <row r="531" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A531" s="48"/>
+      <c r="B531" s="48"/>
+      <c r="C531" s="51"/>
       <c r="D531" s="24">
         <v>7</v>
       </c>
@@ -9264,10 +9277,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A532" s="48"/>
-      <c r="B532" s="48"/>
-      <c r="C532" s="54"/>
+    <row r="532" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A532" s="49"/>
+      <c r="B532" s="49"/>
+      <c r="C532" s="52"/>
       <c r="D532" s="25">
         <v>8</v>
       </c>
@@ -9275,7 +9288,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A533" s="41" t="s">
         <v>511</v>
       </c>
@@ -9290,7 +9303,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A534" s="42"/>
       <c r="B534" s="42"/>
       <c r="C534" s="45"/>
@@ -9301,7 +9314,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A535" s="42"/>
       <c r="B535" s="42"/>
       <c r="C535" s="45"/>
@@ -9312,7 +9325,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="536" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A536" s="43"/>
       <c r="B536" s="43"/>
       <c r="C536" s="46"/>
@@ -9323,14 +9336,14 @@
         <v>248</v>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A537" s="47" t="s">
         <v>512</v>
       </c>
       <c r="B537" s="47" t="s">
         <v>557</v>
       </c>
-      <c r="C537" s="52"/>
+      <c r="C537" s="50"/>
       <c r="D537" s="23">
         <v>1</v>
       </c>
@@ -9338,10 +9351,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A538" s="55"/>
-      <c r="B538" s="55"/>
-      <c r="C538" s="53"/>
+    <row r="538" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A538" s="48"/>
+      <c r="B538" s="48"/>
+      <c r="C538" s="51"/>
       <c r="D538" s="24">
         <v>2</v>
       </c>
@@ -9349,10 +9362,10 @@
         <v>272</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A539" s="55"/>
-      <c r="B539" s="55"/>
-      <c r="C539" s="53"/>
+    <row r="539" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A539" s="48"/>
+      <c r="B539" s="48"/>
+      <c r="C539" s="51"/>
       <c r="D539" s="24">
         <v>3</v>
       </c>
@@ -9360,10 +9373,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A540" s="48"/>
-      <c r="B540" s="48"/>
-      <c r="C540" s="54"/>
+    <row r="540" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A540" s="49"/>
+      <c r="B540" s="49"/>
+      <c r="C540" s="52"/>
       <c r="D540" s="25">
         <v>4</v>
       </c>
@@ -9371,7 +9384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A541" s="41" t="s">
         <v>513</v>
       </c>
@@ -9386,7 +9399,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A542" s="42"/>
       <c r="B542" s="42"/>
       <c r="C542" s="45"/>
@@ -9397,7 +9410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A543" s="42"/>
       <c r="B543" s="42"/>
       <c r="C543" s="45"/>
@@ -9408,7 +9421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A544" s="42"/>
       <c r="B544" s="42"/>
       <c r="C544" s="45"/>
@@ -9419,7 +9432,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A545" s="43"/>
       <c r="B545" s="43"/>
       <c r="C545" s="46"/>
@@ -9430,14 +9443,14 @@
         <v>215</v>
       </c>
     </row>
-    <row r="546" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A546" s="47" t="s">
         <v>514</v>
       </c>
       <c r="B546" s="47" t="s">
         <v>559</v>
       </c>
-      <c r="C546" s="52"/>
+      <c r="C546" s="50"/>
       <c r="D546" s="23">
         <v>1</v>
       </c>
@@ -9445,10 +9458,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A547" s="55"/>
-      <c r="B547" s="55"/>
-      <c r="C547" s="53"/>
+    <row r="547" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A547" s="48"/>
+      <c r="B547" s="48"/>
+      <c r="C547" s="51"/>
       <c r="D547" s="24">
         <v>2</v>
       </c>
@@ -9456,10 +9469,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="548" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A548" s="55"/>
-      <c r="B548" s="55"/>
-      <c r="C548" s="53"/>
+    <row r="548" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A548" s="48"/>
+      <c r="B548" s="48"/>
+      <c r="C548" s="51"/>
       <c r="D548" s="24">
         <v>3</v>
       </c>
@@ -9467,10 +9480,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A549" s="48"/>
-      <c r="B549" s="48"/>
-      <c r="C549" s="54"/>
+    <row r="549" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A549" s="49"/>
+      <c r="B549" s="49"/>
+      <c r="C549" s="52"/>
       <c r="D549" s="25">
         <v>98</v>
       </c>
@@ -9478,7 +9491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A550" s="41" t="s">
         <v>515</v>
       </c>
@@ -9493,7 +9506,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A551" s="42"/>
       <c r="B551" s="42"/>
       <c r="C551" s="45"/>
@@ -9504,7 +9517,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="552" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A552" s="42"/>
       <c r="B552" s="42"/>
       <c r="C552" s="45"/>
@@ -9515,7 +9528,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A553" s="42"/>
       <c r="B553" s="42"/>
       <c r="C553" s="45"/>
@@ -9526,7 +9539,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A554" s="43"/>
       <c r="B554" s="43"/>
       <c r="C554" s="46"/>
@@ -9537,14 +9550,14 @@
         <v>279</v>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A555" s="47" t="s">
         <v>516</v>
       </c>
       <c r="B555" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C555" s="52"/>
+      <c r="C555" s="50"/>
       <c r="D555" s="23">
         <v>1</v>
       </c>
@@ -9552,10 +9565,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="556" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A556" s="55"/>
-      <c r="B556" s="55"/>
-      <c r="C556" s="53"/>
+    <row r="556" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A556" s="48"/>
+      <c r="B556" s="48"/>
+      <c r="C556" s="51"/>
       <c r="D556" s="24">
         <v>2</v>
       </c>
@@ -9563,10 +9576,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A557" s="55"/>
-      <c r="B557" s="55"/>
-      <c r="C557" s="53"/>
+    <row r="557" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A557" s="48"/>
+      <c r="B557" s="48"/>
+      <c r="C557" s="51"/>
       <c r="D557" s="24">
         <v>3</v>
       </c>
@@ -9574,10 +9587,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="558" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A558" s="55"/>
-      <c r="B558" s="55"/>
-      <c r="C558" s="53"/>
+    <row r="558" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A558" s="48"/>
+      <c r="B558" s="48"/>
+      <c r="C558" s="51"/>
       <c r="D558" s="24">
         <v>4</v>
       </c>
@@ -9585,10 +9598,10 @@
         <v>134</v>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A559" s="55"/>
-      <c r="B559" s="55"/>
-      <c r="C559" s="53"/>
+    <row r="559" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A559" s="48"/>
+      <c r="B559" s="48"/>
+      <c r="C559" s="51"/>
       <c r="D559" s="24">
         <v>5</v>
       </c>
@@ -9596,10 +9609,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="560" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A560" s="55"/>
-      <c r="B560" s="55"/>
-      <c r="C560" s="53"/>
+    <row r="560" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A560" s="48"/>
+      <c r="B560" s="48"/>
+      <c r="C560" s="51"/>
       <c r="D560" s="24">
         <v>6</v>
       </c>
@@ -9607,10 +9620,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="561" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A561" s="55"/>
-      <c r="B561" s="55"/>
-      <c r="C561" s="53"/>
+    <row r="561" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A561" s="48"/>
+      <c r="B561" s="48"/>
+      <c r="C561" s="51"/>
       <c r="D561" s="24">
         <v>7</v>
       </c>
@@ -9618,10 +9631,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A562" s="55"/>
-      <c r="B562" s="55"/>
-      <c r="C562" s="53"/>
+    <row r="562" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A562" s="48"/>
+      <c r="B562" s="48"/>
+      <c r="C562" s="51"/>
       <c r="D562" s="24">
         <v>8</v>
       </c>
@@ -9629,10 +9642,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="563" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A563" s="55"/>
-      <c r="B563" s="55"/>
-      <c r="C563" s="53"/>
+    <row r="563" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A563" s="48"/>
+      <c r="B563" s="48"/>
+      <c r="C563" s="51"/>
       <c r="D563" s="24">
         <v>9</v>
       </c>
@@ -9640,10 +9653,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="564" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A564" s="48"/>
-      <c r="B564" s="48"/>
-      <c r="C564" s="54"/>
+    <row r="564" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A564" s="49"/>
+      <c r="B564" s="49"/>
+      <c r="C564" s="52"/>
       <c r="D564" s="25">
         <v>10</v>
       </c>
@@ -9653,141 +9666,170 @@
     </row>
   </sheetData>
   <mergeCells count="330">
-    <mergeCell ref="A533:A536"/>
-    <mergeCell ref="B533:B536"/>
-    <mergeCell ref="C533:C536"/>
-    <mergeCell ref="A537:A540"/>
-    <mergeCell ref="B537:B540"/>
-    <mergeCell ref="C537:C540"/>
-    <mergeCell ref="A541:A545"/>
-    <mergeCell ref="B541:B545"/>
-    <mergeCell ref="C541:C545"/>
-    <mergeCell ref="A515:A517"/>
-    <mergeCell ref="B515:B517"/>
-    <mergeCell ref="C515:C517"/>
-    <mergeCell ref="A518:A524"/>
-    <mergeCell ref="B518:B524"/>
-    <mergeCell ref="C518:C524"/>
-    <mergeCell ref="A525:A532"/>
-    <mergeCell ref="B525:B532"/>
-    <mergeCell ref="C525:C532"/>
-    <mergeCell ref="A493:A501"/>
-    <mergeCell ref="B493:B501"/>
-    <mergeCell ref="C493:C501"/>
-    <mergeCell ref="A502:A510"/>
-    <mergeCell ref="B502:B510"/>
-    <mergeCell ref="C502:C510"/>
-    <mergeCell ref="A511:A514"/>
-    <mergeCell ref="B511:B514"/>
-    <mergeCell ref="C511:C514"/>
-    <mergeCell ref="C469:C472"/>
-    <mergeCell ref="A473:A483"/>
-    <mergeCell ref="B473:B483"/>
-    <mergeCell ref="C473:C483"/>
-    <mergeCell ref="A484:A488"/>
-    <mergeCell ref="B484:B488"/>
-    <mergeCell ref="C484:C488"/>
-    <mergeCell ref="A489:A492"/>
-    <mergeCell ref="B489:B492"/>
-    <mergeCell ref="C489:C492"/>
-    <mergeCell ref="C448:C453"/>
-    <mergeCell ref="A454:A462"/>
-    <mergeCell ref="B454:B462"/>
-    <mergeCell ref="C454:C462"/>
-    <mergeCell ref="A463:A465"/>
-    <mergeCell ref="B463:B465"/>
-    <mergeCell ref="C463:C465"/>
-    <mergeCell ref="A466:A468"/>
-    <mergeCell ref="B466:B468"/>
-    <mergeCell ref="C466:C468"/>
-    <mergeCell ref="C420:C431"/>
-    <mergeCell ref="A432:A434"/>
-    <mergeCell ref="B432:B434"/>
-    <mergeCell ref="C432:C434"/>
-    <mergeCell ref="A435:A439"/>
-    <mergeCell ref="B435:B439"/>
-    <mergeCell ref="C435:C439"/>
-    <mergeCell ref="A440:A447"/>
-    <mergeCell ref="B440:B447"/>
-    <mergeCell ref="C440:C447"/>
-    <mergeCell ref="C400:C408"/>
-    <mergeCell ref="A409:A411"/>
-    <mergeCell ref="B409:B411"/>
-    <mergeCell ref="C409:C411"/>
-    <mergeCell ref="A412:A416"/>
-    <mergeCell ref="B412:B416"/>
-    <mergeCell ref="C412:C416"/>
-    <mergeCell ref="A417:A419"/>
-    <mergeCell ref="B417:B419"/>
-    <mergeCell ref="C417:C419"/>
-    <mergeCell ref="C379:C385"/>
-    <mergeCell ref="A386:A393"/>
-    <mergeCell ref="B386:B393"/>
-    <mergeCell ref="C386:C393"/>
-    <mergeCell ref="A394:A396"/>
-    <mergeCell ref="B394:B396"/>
-    <mergeCell ref="C394:C396"/>
-    <mergeCell ref="A397:A399"/>
-    <mergeCell ref="B397:B399"/>
-    <mergeCell ref="C397:C399"/>
-    <mergeCell ref="C348:C352"/>
-    <mergeCell ref="A353:A360"/>
-    <mergeCell ref="B353:B360"/>
-    <mergeCell ref="C353:C360"/>
-    <mergeCell ref="A361:A366"/>
-    <mergeCell ref="B361:B366"/>
-    <mergeCell ref="C361:C366"/>
-    <mergeCell ref="A367:A378"/>
-    <mergeCell ref="B367:B378"/>
-    <mergeCell ref="C367:C378"/>
-    <mergeCell ref="C308:C317"/>
-    <mergeCell ref="A318:A327"/>
-    <mergeCell ref="B318:B327"/>
-    <mergeCell ref="C318:C327"/>
-    <mergeCell ref="A328:A340"/>
-    <mergeCell ref="B328:B340"/>
-    <mergeCell ref="C328:C340"/>
-    <mergeCell ref="A341:A347"/>
-    <mergeCell ref="B341:B347"/>
-    <mergeCell ref="C341:C347"/>
-    <mergeCell ref="C284:C287"/>
-    <mergeCell ref="A288:A293"/>
-    <mergeCell ref="B288:B293"/>
-    <mergeCell ref="C288:C293"/>
-    <mergeCell ref="A300:A304"/>
-    <mergeCell ref="B300:B304"/>
-    <mergeCell ref="C300:C304"/>
-    <mergeCell ref="A305:A307"/>
-    <mergeCell ref="B305:B307"/>
-    <mergeCell ref="C305:C307"/>
-    <mergeCell ref="B294:B299"/>
-    <mergeCell ref="C256:C258"/>
-    <mergeCell ref="A259:A271"/>
-    <mergeCell ref="B259:B271"/>
-    <mergeCell ref="C259:C271"/>
-    <mergeCell ref="A272:A275"/>
-    <mergeCell ref="B272:B275"/>
-    <mergeCell ref="C272:C275"/>
-    <mergeCell ref="A276:A279"/>
-    <mergeCell ref="B276:B279"/>
-    <mergeCell ref="C276:C279"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="A231:A235"/>
-    <mergeCell ref="B231:B235"/>
-    <mergeCell ref="C231:C235"/>
-    <mergeCell ref="A227:A230"/>
-    <mergeCell ref="B227:B230"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="A187:A191"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="C187:C191"/>
-    <mergeCell ref="A192:A197"/>
-    <mergeCell ref="B192:B197"/>
-    <mergeCell ref="C192:C197"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="A171:A174"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="A175:A178"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="A280:A283"/>
+    <mergeCell ref="B280:B283"/>
+    <mergeCell ref="A284:A287"/>
+    <mergeCell ref="B284:B287"/>
+    <mergeCell ref="A244:A255"/>
+    <mergeCell ref="B244:B255"/>
+    <mergeCell ref="A256:A258"/>
+    <mergeCell ref="B256:B258"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="A236:A243"/>
+    <mergeCell ref="B236:B243"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="C171:C174"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="A546:A549"/>
+    <mergeCell ref="B546:B549"/>
+    <mergeCell ref="A550:A554"/>
+    <mergeCell ref="B550:B554"/>
+    <mergeCell ref="A555:A564"/>
+    <mergeCell ref="B555:B564"/>
+    <mergeCell ref="A348:A352"/>
+    <mergeCell ref="B348:B352"/>
+    <mergeCell ref="A379:A385"/>
+    <mergeCell ref="B379:B385"/>
+    <mergeCell ref="A400:A408"/>
+    <mergeCell ref="B400:B408"/>
+    <mergeCell ref="A420:A431"/>
+    <mergeCell ref="B420:B431"/>
+    <mergeCell ref="A448:A453"/>
+    <mergeCell ref="B448:B453"/>
+    <mergeCell ref="A469:A472"/>
+    <mergeCell ref="B469:B472"/>
+    <mergeCell ref="A308:A317"/>
+    <mergeCell ref="B308:B317"/>
+    <mergeCell ref="A294:A299"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C546:C549"/>
+    <mergeCell ref="C550:C554"/>
+    <mergeCell ref="C555:C564"/>
+    <mergeCell ref="C294:C299"/>
+    <mergeCell ref="C280:C283"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C214"/>
+    <mergeCell ref="C236:C243"/>
+    <mergeCell ref="C244:C255"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="C137:C140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="C129:C132"/>
     <mergeCell ref="C159:C162"/>
     <mergeCell ref="A163:A166"/>
     <mergeCell ref="B163:B166"/>
@@ -9812,177 +9854,148 @@
     <mergeCell ref="A133:A136"/>
     <mergeCell ref="B133:B136"/>
     <mergeCell ref="C133:C136"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="C137:C140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C546:C549"/>
-    <mergeCell ref="C550:C554"/>
-    <mergeCell ref="C555:C564"/>
-    <mergeCell ref="C294:C299"/>
-    <mergeCell ref="C280:C283"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="C210:C214"/>
-    <mergeCell ref="C236:C243"/>
-    <mergeCell ref="C244:C255"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C171:C174"/>
-    <mergeCell ref="C175:C178"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="A546:A549"/>
-    <mergeCell ref="B546:B549"/>
-    <mergeCell ref="A550:A554"/>
-    <mergeCell ref="B550:B554"/>
-    <mergeCell ref="A555:A564"/>
-    <mergeCell ref="B555:B564"/>
-    <mergeCell ref="A348:A352"/>
-    <mergeCell ref="B348:B352"/>
-    <mergeCell ref="A379:A385"/>
-    <mergeCell ref="B379:B385"/>
-    <mergeCell ref="A400:A408"/>
-    <mergeCell ref="B400:B408"/>
-    <mergeCell ref="A420:A431"/>
-    <mergeCell ref="B420:B431"/>
-    <mergeCell ref="A448:A453"/>
-    <mergeCell ref="B448:B453"/>
-    <mergeCell ref="A469:A472"/>
-    <mergeCell ref="B469:B472"/>
-    <mergeCell ref="A308:A317"/>
-    <mergeCell ref="B308:B317"/>
-    <mergeCell ref="A294:A299"/>
-    <mergeCell ref="A280:A283"/>
-    <mergeCell ref="B280:B283"/>
-    <mergeCell ref="A284:A287"/>
-    <mergeCell ref="B284:B287"/>
-    <mergeCell ref="A244:A255"/>
-    <mergeCell ref="B244:B255"/>
-    <mergeCell ref="A256:A258"/>
-    <mergeCell ref="B256:B258"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="A236:A243"/>
-    <mergeCell ref="B236:B243"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="A231:A235"/>
+    <mergeCell ref="B231:B235"/>
+    <mergeCell ref="C231:C235"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="B227:B230"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="A187:A191"/>
+    <mergeCell ref="B187:B191"/>
+    <mergeCell ref="C187:C191"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="B192:B197"/>
+    <mergeCell ref="C192:C197"/>
     <mergeCell ref="A183:A184"/>
     <mergeCell ref="B183:B184"/>
     <mergeCell ref="A198:A201"/>
     <mergeCell ref="B198:B201"/>
     <mergeCell ref="A202:A205"/>
     <mergeCell ref="B202:B205"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="A171:A174"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="A175:A178"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
     <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C256:C258"/>
+    <mergeCell ref="A259:A271"/>
+    <mergeCell ref="B259:B271"/>
+    <mergeCell ref="C259:C271"/>
+    <mergeCell ref="A272:A275"/>
+    <mergeCell ref="B272:B275"/>
+    <mergeCell ref="C272:C275"/>
+    <mergeCell ref="A276:A279"/>
+    <mergeCell ref="B276:B279"/>
+    <mergeCell ref="C276:C279"/>
+    <mergeCell ref="C284:C287"/>
+    <mergeCell ref="A288:A293"/>
+    <mergeCell ref="B288:B293"/>
+    <mergeCell ref="C288:C293"/>
+    <mergeCell ref="A300:A304"/>
+    <mergeCell ref="B300:B304"/>
+    <mergeCell ref="C300:C304"/>
+    <mergeCell ref="A305:A307"/>
+    <mergeCell ref="B305:B307"/>
+    <mergeCell ref="C305:C307"/>
+    <mergeCell ref="B294:B299"/>
+    <mergeCell ref="C308:C317"/>
+    <mergeCell ref="A318:A327"/>
+    <mergeCell ref="B318:B327"/>
+    <mergeCell ref="C318:C327"/>
+    <mergeCell ref="A328:A340"/>
+    <mergeCell ref="B328:B340"/>
+    <mergeCell ref="C328:C340"/>
+    <mergeCell ref="A341:A347"/>
+    <mergeCell ref="B341:B347"/>
+    <mergeCell ref="C341:C347"/>
+    <mergeCell ref="C348:C352"/>
+    <mergeCell ref="A353:A360"/>
+    <mergeCell ref="B353:B360"/>
+    <mergeCell ref="C353:C360"/>
+    <mergeCell ref="A361:A366"/>
+    <mergeCell ref="B361:B366"/>
+    <mergeCell ref="C361:C366"/>
+    <mergeCell ref="A367:A378"/>
+    <mergeCell ref="B367:B378"/>
+    <mergeCell ref="C367:C378"/>
+    <mergeCell ref="C379:C385"/>
+    <mergeCell ref="A386:A393"/>
+    <mergeCell ref="B386:B393"/>
+    <mergeCell ref="C386:C393"/>
+    <mergeCell ref="A394:A396"/>
+    <mergeCell ref="B394:B396"/>
+    <mergeCell ref="C394:C396"/>
+    <mergeCell ref="A397:A399"/>
+    <mergeCell ref="B397:B399"/>
+    <mergeCell ref="C397:C399"/>
+    <mergeCell ref="C400:C408"/>
+    <mergeCell ref="A409:A411"/>
+    <mergeCell ref="B409:B411"/>
+    <mergeCell ref="C409:C411"/>
+    <mergeCell ref="A412:A416"/>
+    <mergeCell ref="B412:B416"/>
+    <mergeCell ref="C412:C416"/>
+    <mergeCell ref="A417:A419"/>
+    <mergeCell ref="B417:B419"/>
+    <mergeCell ref="C417:C419"/>
+    <mergeCell ref="C420:C431"/>
+    <mergeCell ref="A432:A434"/>
+    <mergeCell ref="B432:B434"/>
+    <mergeCell ref="C432:C434"/>
+    <mergeCell ref="A435:A439"/>
+    <mergeCell ref="B435:B439"/>
+    <mergeCell ref="C435:C439"/>
+    <mergeCell ref="A440:A447"/>
+    <mergeCell ref="B440:B447"/>
+    <mergeCell ref="C440:C447"/>
+    <mergeCell ref="C448:C453"/>
+    <mergeCell ref="A454:A462"/>
+    <mergeCell ref="B454:B462"/>
+    <mergeCell ref="C454:C462"/>
+    <mergeCell ref="A463:A465"/>
+    <mergeCell ref="B463:B465"/>
+    <mergeCell ref="C463:C465"/>
+    <mergeCell ref="A466:A468"/>
+    <mergeCell ref="B466:B468"/>
+    <mergeCell ref="C466:C468"/>
+    <mergeCell ref="C469:C472"/>
+    <mergeCell ref="A473:A483"/>
+    <mergeCell ref="B473:B483"/>
+    <mergeCell ref="C473:C483"/>
+    <mergeCell ref="A484:A488"/>
+    <mergeCell ref="B484:B488"/>
+    <mergeCell ref="C484:C488"/>
+    <mergeCell ref="A489:A492"/>
+    <mergeCell ref="B489:B492"/>
+    <mergeCell ref="C489:C492"/>
+    <mergeCell ref="A493:A501"/>
+    <mergeCell ref="B493:B501"/>
+    <mergeCell ref="C493:C501"/>
+    <mergeCell ref="A502:A510"/>
+    <mergeCell ref="B502:B510"/>
+    <mergeCell ref="C502:C510"/>
+    <mergeCell ref="A511:A514"/>
+    <mergeCell ref="B511:B514"/>
+    <mergeCell ref="C511:C514"/>
+    <mergeCell ref="A515:A517"/>
+    <mergeCell ref="B515:B517"/>
+    <mergeCell ref="C515:C517"/>
+    <mergeCell ref="A518:A524"/>
+    <mergeCell ref="B518:B524"/>
+    <mergeCell ref="C518:C524"/>
+    <mergeCell ref="A525:A532"/>
+    <mergeCell ref="B525:B532"/>
+    <mergeCell ref="C525:C532"/>
+    <mergeCell ref="A533:A536"/>
+    <mergeCell ref="B533:B536"/>
+    <mergeCell ref="C533:C536"/>
+    <mergeCell ref="A537:A540"/>
+    <mergeCell ref="B537:B540"/>
+    <mergeCell ref="C537:C540"/>
+    <mergeCell ref="A541:A545"/>
+    <mergeCell ref="B541:B545"/>
+    <mergeCell ref="C541:C545"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
